--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1511F-45C0-443F-888C-90D577400BD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057FCE5-D198-4279-881E-3B8A7DC2FEDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2078,9 +2078,11 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7057FCE5-D198-4279-881E-3B8A7DC2FEDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7522E11-68A2-421A-84F1-19120E438255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>Kadane's algorithm</t>
+  </si>
+  <si>
+    <t>msf and meh</t>
+  </si>
+  <si>
+    <t>check overlap start time then end time</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1890,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2092,9 +2098,11 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="D18" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1">
@@ -2104,9 +2112,11 @@
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="D19" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7522E11-68A2-421A-84F1-19120E438255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699408DF-C7FD-438F-9492-DD707C4DDEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="475">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1447,6 +1447,9 @@
   </si>
   <si>
     <t>check overlap start time then end time</t>
+  </si>
+  <si>
+    <t>i,j,k,c</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2126,9 +2129,11 @@
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="D20" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699408DF-C7FD-438F-9492-DD707C4DDEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F16049-3E77-468F-BC48-C0F145DA9A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>i,j,k,c</t>
+  </si>
+  <si>
+    <t>Brute force</t>
   </si>
 </sst>
 </file>
@@ -1892,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2143,9 +2146,11 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D21" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F16049-3E77-468F-BC48-C0F145DA9A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F209D-1EEB-4EC6-B717-248FCFE0800D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1453,6 +1453,12 @@
   </si>
   <si>
     <t>Brute force</t>
+  </si>
+  <si>
+    <t>local minima and local maxima</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1902,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2160,9 +2166,11 @@
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>476</v>
+      </c>
       <c r="D22" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1">
@@ -2172,9 +2180,11 @@
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="D23" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F209D-1EEB-4EC6-B717-248FCFE0800D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA3C593-DEBD-4E28-8353-67C17C58CD36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1459,6 +1459,9 @@
   </si>
   <si>
     <t>Hashmap</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2635,9 +2638,11 @@
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="D63" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA3C593-DEBD-4E28-8353-67C17C58CD36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF05CA7-034A-484F-AD31-1557664CE299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1458,10 +1458,25 @@
     <t>local minima and local maxima</t>
   </si>
   <si>
-    <t>Hashmap</t>
-  </si>
-  <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>Add all numbers and indices</t>
+  </si>
+  <si>
+    <t>Calculate max steps at each jump and 
+decrement step on ech iteration</t>
+  </si>
+  <si>
+    <t>check max and min over a loop</t>
+  </si>
+  <si>
+    <t>if height &lt; k ADD, if h &gt; k SUB and
+calculate min max over loop</t>
+  </si>
+  <si>
+    <t>Hashmap - map all arr item counts and 
+count all k-arr[i] counts</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1586,6 +1601,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1904,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -1967,7 +1985,9 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>467</v>
       </c>
@@ -2056,26 +2076,30 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" customHeight="1">
+    <row r="14" spans="1:4" ht="52.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="12" t="s">
+        <v>481</v>
+      </c>
       <c r="D14" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" customHeight="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="54" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="12" t="s">
+        <v>479</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>467</v>
       </c>
@@ -2087,7 +2111,9 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>467</v>
       </c>
@@ -2176,15 +2202,15 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1">
+    <row r="23" spans="1:4" ht="53.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>477</v>
+      <c r="C23" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>467</v>
@@ -2197,9 +2223,11 @@
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="D24" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1">
@@ -2639,7 +2667,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>467</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF05CA7-034A-484F-AD31-1557664CE299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027602E2-9E32-4369-88BB-5EB78FC1878C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1477,6 +1477,9 @@
   <si>
     <t>Hashmap - map all arr item counts and 
 count all k-arr[i] counts</t>
+  </si>
+  <si>
+    <t>Use set to store sum</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1926,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2249,9 +2252,11 @@
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="D26" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027602E2-9E32-4369-88BB-5EB78FC1878C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25551545-BF3E-4D79-B257-5A957377DCA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1480,6 +1480,12 @@
   </si>
   <si>
     <t>Use set to store sum</t>
+  </si>
+  <si>
+    <t>Using BigInteger multiply</t>
+  </si>
+  <si>
+    <t>Using minproduct, maxproduct</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1932,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2266,9 +2272,11 @@
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="D27" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1">
@@ -2278,9 +2286,11 @@
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25551545-BF3E-4D79-B257-5A957377DCA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C497971D-7465-4081-AED8-4359A4616BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1486,6 +1486,9 @@
   </si>
   <si>
     <t>Using minproduct, maxproduct</t>
+  </si>
+  <si>
+    <t>Hashset</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1935,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2300,9 +2303,11 @@
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="D29" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C497971D-7465-4081-AED8-4359A4616BDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E221B37-3890-4AD0-B10A-3999D695D35F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="489">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1489,6 +1489,12 @@
   </si>
   <si>
     <t>Hashset</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>calculate max-min twice relatively</t>
   </si>
 </sst>
 </file>
@@ -1934,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2317,9 +2323,11 @@
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="D30" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1">
@@ -2329,9 +2337,11 @@
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1">
@@ -2341,9 +2351,11 @@
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>487</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E221B37-3890-4AD0-B10A-3999D695D35F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC5437-0171-41D6-9DC7-56A9EC5DE29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="489">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2365,9 +2365,11 @@
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="D33" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BC5437-0171-41D6-9DC7-56A9EC5DE29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B619DA2-0F40-4017-A13F-E4CC9BF666E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1495,6 +1495,10 @@
   </si>
   <si>
     <t>calculate max-min twice relatively</t>
+  </si>
+  <si>
+    <t>Two pointer algorithm with maxleft
+and maxright</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1945,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2372,16 +2376,18 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" customHeight="1">
+    <row r="34" spans="1:4" ht="45" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="12" t="s">
+        <v>489</v>
+      </c>
       <c r="D34" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B619DA2-0F40-4017-A13F-E4CC9BF666E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FF65E-78C1-4BDC-84ED-984246A0D392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="491">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1499,6 +1499,10 @@
   <si>
     <t>Two pointer algorithm with maxleft
 and maxright</t>
+  </si>
+  <si>
+    <t>find max - min from every sub-array
+in sorted array</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2390,16 +2394,18 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" customHeight="1">
+    <row r="35" spans="1:4" ht="52.5" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="12" t="s">
+        <v>490</v>
+      </c>
       <c r="D35" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05FF65E-78C1-4BDC-84ED-984246A0D392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5475F12E-8E80-46FC-A4E6-A2D39820EE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="491">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1949,7 +1949,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2415,9 +2415,11 @@
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="D36" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5475F12E-8E80-46FC-A4E6-A2D39820EE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB1A2E-276C-4A3D-8931-E2583207A5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1503,6 +1503,9 @@
   <si>
     <t>find max - min from every sub-array
 in sorted array</t>
+  </si>
+  <si>
+    <t>sliding window</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2429,9 +2432,11 @@
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="D37" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1">
@@ -2441,9 +2446,11 @@
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB1A2E-276C-4A3D-8931-E2583207A5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EBF6A4-5485-4745-805D-6C4E27A6B820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
   </si>
   <si>
     <t>Median of 2 sorted arrays of equal size</t>
@@ -1506,6 +1503,15 @@
   </si>
   <si>
     <t>sliding window</t>
+  </si>
+  <si>
+    <t>Check all elements in array are palindrome or not</t>
+  </si>
+  <si>
+    <t>reverse and check</t>
+  </si>
+  <si>
+    <t>find median</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1958,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -1984,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
@@ -2001,10 +2007,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1">
@@ -2015,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1">
@@ -2029,10 +2035,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1">
@@ -2043,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1">
@@ -2057,10 +2063,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1">
@@ -2071,10 +2077,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1">
@@ -2085,10 +2091,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1">
@@ -2099,10 +2105,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.5" customHeight="1">
@@ -2113,10 +2119,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="54" customHeight="1">
@@ -2127,10 +2133,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1">
@@ -2141,10 +2147,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1">
@@ -2155,10 +2161,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1">
@@ -2169,10 +2175,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1">
@@ -2183,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1">
@@ -2197,10 +2203,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1">
@@ -2211,10 +2217,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1">
@@ -2225,10 +2231,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="53.25" customHeight="1">
@@ -2239,10 +2245,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1">
@@ -2253,10 +2259,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1">
@@ -2279,10 +2285,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1">
@@ -2293,10 +2299,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1">
@@ -2307,10 +2313,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1">
@@ -2321,10 +2327,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1">
@@ -2335,10 +2341,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1">
@@ -2349,10 +2355,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1">
@@ -2363,10 +2369,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1">
@@ -2377,10 +2383,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" customHeight="1">
@@ -2391,10 +2397,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.5" customHeight="1">
@@ -2405,10 +2411,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1">
@@ -2419,10 +2425,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1">
@@ -2433,10 +2439,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1">
@@ -2447,10 +2453,10 @@
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1">
@@ -2458,11 +2464,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="D39" s="8" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="31.5" customHeight="1">
@@ -2470,11 +2478,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" customHeight="1">
@@ -2482,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="8" t="s">
@@ -2506,10 +2516,10 @@
     </row>
     <row r="44" spans="1:4" ht="31.5" customHeight="1">
       <c r="A44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="8" t="s">
@@ -2518,10 +2528,10 @@
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="8" t="s">
@@ -2530,10 +2540,10 @@
     </row>
     <row r="46" spans="1:4" ht="31.5" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="8" t="s">
@@ -2542,10 +2552,10 @@
     </row>
     <row r="47" spans="1:4" ht="31.5" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="8" t="s">
@@ -2554,10 +2564,10 @@
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
@@ -2566,10 +2576,10 @@
     </row>
     <row r="49" spans="1:4" ht="31.5" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
@@ -2578,10 +2588,10 @@
     </row>
     <row r="50" spans="1:4" ht="31.5" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
@@ -2590,10 +2600,10 @@
     </row>
     <row r="51" spans="1:4" ht="31.5" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="8" t="s">
@@ -2602,10 +2612,10 @@
     </row>
     <row r="52" spans="1:4" ht="31.5" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="8" t="s">
@@ -2614,10 +2624,10 @@
     </row>
     <row r="53" spans="1:4" ht="31.5" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="8" t="s">
@@ -2632,10 +2642,10 @@
     </row>
     <row r="56" spans="1:4" ht="31.5" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="8" t="s">
@@ -2644,10 +2654,10 @@
     </row>
     <row r="57" spans="1:4" ht="31.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="8" t="s">
@@ -2656,10 +2666,10 @@
     </row>
     <row r="58" spans="1:4" ht="31.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="8" t="s">
@@ -2668,10 +2678,10 @@
     </row>
     <row r="59" spans="1:4" ht="31.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="8" t="s">
@@ -2680,10 +2690,10 @@
     </row>
     <row r="60" spans="1:4" ht="31.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
@@ -2692,10 +2702,10 @@
     </row>
     <row r="61" spans="1:4" ht="31.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
@@ -2704,10 +2714,10 @@
     </row>
     <row r="62" spans="1:4" ht="31.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
@@ -2716,24 +2726,24 @@
     </row>
     <row r="63" spans="1:4" ht="31.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="8" t="s">
@@ -2742,10 +2752,10 @@
     </row>
     <row r="65" spans="1:4" ht="31.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="8" t="s">
@@ -2754,10 +2764,10 @@
     </row>
     <row r="66" spans="1:4" ht="31.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
@@ -2766,10 +2776,10 @@
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
@@ -2778,10 +2788,10 @@
     </row>
     <row r="68" spans="1:4" ht="31.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
@@ -2790,10 +2800,10 @@
     </row>
     <row r="69" spans="1:4" ht="31.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
@@ -2802,10 +2812,10 @@
     </row>
     <row r="70" spans="1:4" ht="31.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="8" t="s">
@@ -2814,10 +2824,10 @@
     </row>
     <row r="71" spans="1:4" ht="31.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="8" t="s">
@@ -2826,10 +2836,10 @@
     </row>
     <row r="72" spans="1:4" ht="31.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="8" t="s">
@@ -2838,10 +2848,10 @@
     </row>
     <row r="73" spans="1:4" ht="31.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="8" t="s">
@@ -2850,10 +2860,10 @@
     </row>
     <row r="74" spans="1:4" ht="31.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="8" t="s">
@@ -2862,10 +2872,10 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="8" t="s">
@@ -2874,10 +2884,10 @@
     </row>
     <row r="76" spans="1:4" ht="31.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="8" t="s">
@@ -2886,10 +2896,10 @@
     </row>
     <row r="77" spans="1:4" ht="31.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="8" t="s">
@@ -2898,10 +2908,10 @@
     </row>
     <row r="78" spans="1:4" ht="31.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="8" t="s">
@@ -2910,10 +2920,10 @@
     </row>
     <row r="79" spans="1:4" ht="31.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="8" t="s">
@@ -2922,10 +2932,10 @@
     </row>
     <row r="80" spans="1:4" ht="31.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="8" t="s">
@@ -2934,10 +2944,10 @@
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="8" t="s">
@@ -2946,10 +2956,10 @@
     </row>
     <row r="82" spans="1:4" ht="31.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="8" t="s">
@@ -2958,10 +2968,10 @@
     </row>
     <row r="83" spans="1:4" ht="31.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="8" t="s">
@@ -2970,10 +2980,10 @@
     </row>
     <row r="84" spans="1:4" ht="31.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="8" t="s">
@@ -2982,10 +2992,10 @@
     </row>
     <row r="85" spans="1:4" ht="31.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="8" t="s">
@@ -2994,10 +3004,10 @@
     </row>
     <row r="86" spans="1:4" ht="31.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="8" t="s">
@@ -3006,10 +3016,10 @@
     </row>
     <row r="87" spans="1:4" ht="31.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="8" t="s">
@@ -3018,10 +3028,10 @@
     </row>
     <row r="88" spans="1:4" ht="31.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="8" t="s">
@@ -3030,10 +3040,10 @@
     </row>
     <row r="89" spans="1:4" ht="31.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="8" t="s">
@@ -3042,10 +3052,10 @@
     </row>
     <row r="90" spans="1:4" ht="31.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="8" t="s">
@@ -3054,10 +3064,10 @@
     </row>
     <row r="91" spans="1:4" ht="31.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="8" t="s">
@@ -3066,10 +3076,10 @@
     </row>
     <row r="92" spans="1:4" ht="31.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="8" t="s">
@@ -3078,10 +3088,10 @@
     </row>
     <row r="93" spans="1:4" ht="31.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="8" t="s">
@@ -3090,10 +3100,10 @@
     </row>
     <row r="94" spans="1:4" ht="31.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="8" t="s">
@@ -3102,10 +3112,10 @@
     </row>
     <row r="95" spans="1:4" ht="31.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="8" t="s">
@@ -3114,10 +3124,10 @@
     </row>
     <row r="96" spans="1:4" ht="31.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="8" t="s">
@@ -3126,10 +3136,10 @@
     </row>
     <row r="97" spans="1:4" ht="31.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="8" t="s">
@@ -3138,10 +3148,10 @@
     </row>
     <row r="98" spans="1:4" ht="31.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="8" t="s">
@@ -3156,10 +3166,10 @@
     </row>
     <row r="101" spans="1:4" ht="31.5" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="8" t="s">
@@ -3168,10 +3178,10 @@
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="8" t="s">
@@ -3180,10 +3190,10 @@
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="8" t="s">
@@ -3192,10 +3202,10 @@
     </row>
     <row r="104" spans="1:4" ht="31.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="8" t="s">
@@ -3204,10 +3214,10 @@
     </row>
     <row r="105" spans="1:4" ht="31.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="8" t="s">
@@ -3216,10 +3226,10 @@
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="8" t="s">
@@ -3228,10 +3238,10 @@
     </row>
     <row r="107" spans="1:4" ht="31.5" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="8" t="s">
@@ -3240,10 +3250,10 @@
     </row>
     <row r="108" spans="1:4" ht="31.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="8" t="s">
@@ -3252,10 +3262,10 @@
     </row>
     <row r="109" spans="1:4" ht="31.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="8" t="s">
@@ -3264,10 +3274,10 @@
     </row>
     <row r="110" spans="1:4" ht="31.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="8" t="s">
@@ -3276,10 +3286,10 @@
     </row>
     <row r="111" spans="1:4" ht="31.5" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="8" t="s">
@@ -3288,10 +3298,10 @@
     </row>
     <row r="112" spans="1:4" ht="31.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="8" t="s">
@@ -3300,10 +3310,10 @@
     </row>
     <row r="113" spans="1:4" ht="31.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="8" t="s">
@@ -3312,10 +3322,10 @@
     </row>
     <row r="114" spans="1:4" ht="31.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="8" t="s">
@@ -3324,10 +3334,10 @@
     </row>
     <row r="115" spans="1:4" ht="31.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="8" t="s">
@@ -3336,10 +3346,10 @@
     </row>
     <row r="116" spans="1:4" ht="31.5" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="8" t="s">
@@ -3348,10 +3358,10 @@
     </row>
     <row r="117" spans="1:4" ht="31.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="8" t="s">
@@ -3360,10 +3370,10 @@
     </row>
     <row r="118" spans="1:4" ht="31.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="8" t="s">
@@ -3372,10 +3382,10 @@
     </row>
     <row r="119" spans="1:4" ht="31.5" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="8" t="s">
@@ -3384,10 +3394,10 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="8" t="s">
@@ -3396,10 +3406,10 @@
     </row>
     <row r="121" spans="1:4" ht="31.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="8" t="s">
@@ -3408,10 +3418,10 @@
     </row>
     <row r="122" spans="1:4" ht="31.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="8" t="s">
@@ -3420,10 +3430,10 @@
     </row>
     <row r="123" spans="1:4" ht="31.5" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="8" t="s">
@@ -3432,10 +3442,10 @@
     </row>
     <row r="124" spans="1:4" ht="31.5" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="8" t="s">
@@ -3444,10 +3454,10 @@
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="8" t="s">
@@ -3456,10 +3466,10 @@
     </row>
     <row r="126" spans="1:4" ht="31.5" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="8" t="s">
@@ -3468,10 +3478,10 @@
     </row>
     <row r="127" spans="1:4" ht="31.5" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="8" t="s">
@@ -3480,10 +3490,10 @@
     </row>
     <row r="128" spans="1:4" ht="31.5" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="8" t="s">
@@ -3492,10 +3502,10 @@
     </row>
     <row r="129" spans="1:4" ht="31.5" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="8" t="s">
@@ -3504,10 +3514,10 @@
     </row>
     <row r="130" spans="1:4" ht="31.5" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="8" t="s">
@@ -3516,10 +3526,10 @@
     </row>
     <row r="131" spans="1:4" ht="31.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="8" t="s">
@@ -3528,10 +3538,10 @@
     </row>
     <row r="132" spans="1:4" ht="31.5" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="8" t="s">
@@ -3540,10 +3550,10 @@
     </row>
     <row r="133" spans="1:4" ht="31.5" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="8" t="s">
@@ -3552,10 +3562,10 @@
     </row>
     <row r="134" spans="1:4" ht="31.5" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="8" t="s">
@@ -3564,10 +3574,10 @@
     </row>
     <row r="135" spans="1:4" ht="31.5" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="8" t="s">
@@ -3576,10 +3586,10 @@
     </row>
     <row r="136" spans="1:4" ht="31.5" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="8" t="s">
@@ -3593,10 +3603,10 @@
     </row>
     <row r="139" spans="1:4" ht="31.5" customHeight="1">
       <c r="A139" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="8" t="s">
@@ -3605,10 +3615,10 @@
     </row>
     <row r="140" spans="1:4" ht="31.5" customHeight="1">
       <c r="A140" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="8" t="s">
@@ -3617,10 +3627,10 @@
     </row>
     <row r="141" spans="1:4" ht="31.5" customHeight="1">
       <c r="A141" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="8" t="s">
@@ -3629,10 +3639,10 @@
     </row>
     <row r="142" spans="1:4" ht="31.5" customHeight="1">
       <c r="A142" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="8" t="s">
@@ -3641,10 +3651,10 @@
     </row>
     <row r="143" spans="1:4" ht="31.5" customHeight="1">
       <c r="A143" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="8" t="s">
@@ -3653,10 +3663,10 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" customHeight="1">
       <c r="A144" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="8" t="s">
@@ -3665,10 +3675,10 @@
     </row>
     <row r="145" spans="1:4" ht="31.5" customHeight="1">
       <c r="A145" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="8" t="s">
@@ -3677,10 +3687,10 @@
     </row>
     <row r="146" spans="1:4" ht="31.5" customHeight="1">
       <c r="A146" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="8" t="s">
@@ -3689,10 +3699,10 @@
     </row>
     <row r="147" spans="1:4" ht="31.5" customHeight="1">
       <c r="A147" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="8" t="s">
@@ -3701,10 +3711,10 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" customHeight="1">
       <c r="A148" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="8" t="s">
@@ -3713,10 +3723,10 @@
     </row>
     <row r="149" spans="1:4" ht="31.5" customHeight="1">
       <c r="A149" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="8" t="s">
@@ -3725,10 +3735,10 @@
     </row>
     <row r="150" spans="1:4" ht="31.5" customHeight="1">
       <c r="A150" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="8" t="s">
@@ -3737,10 +3747,10 @@
     </row>
     <row r="151" spans="1:4" ht="31.5" customHeight="1">
       <c r="A151" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="8" t="s">
@@ -3749,10 +3759,10 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" customHeight="1">
       <c r="A152" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="8" t="s">
@@ -3761,10 +3771,10 @@
     </row>
     <row r="153" spans="1:4" ht="31.5" customHeight="1">
       <c r="A153" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="8" t="s">
@@ -3773,10 +3783,10 @@
     </row>
     <row r="154" spans="1:4" ht="31.5" customHeight="1">
       <c r="A154" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="8" t="s">
@@ -3785,10 +3795,10 @@
     </row>
     <row r="155" spans="1:4" ht="31.5" customHeight="1">
       <c r="A155" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="8" t="s">
@@ -3797,10 +3807,10 @@
     </row>
     <row r="156" spans="1:4" ht="31.5" customHeight="1">
       <c r="A156" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="8" t="s">
@@ -3809,10 +3819,10 @@
     </row>
     <row r="157" spans="1:4" ht="31.5" customHeight="1">
       <c r="A157" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="8" t="s">
@@ -3821,10 +3831,10 @@
     </row>
     <row r="158" spans="1:4" ht="31.5" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="8" t="s">
@@ -3833,10 +3843,10 @@
     </row>
     <row r="159" spans="1:4" ht="31.5" customHeight="1">
       <c r="A159" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="8" t="s">
@@ -3845,10 +3855,10 @@
     </row>
     <row r="160" spans="1:4" ht="31.5" customHeight="1">
       <c r="A160" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="8" t="s">
@@ -3857,10 +3867,10 @@
     </row>
     <row r="161" spans="1:4" ht="31.5" customHeight="1">
       <c r="A161" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="8" t="s">
@@ -3869,10 +3879,10 @@
     </row>
     <row r="162" spans="1:4" ht="31.5" customHeight="1">
       <c r="A162" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="8" t="s">
@@ -3881,10 +3891,10 @@
     </row>
     <row r="163" spans="1:4" ht="31.5" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="8" t="s">
@@ -3893,10 +3903,10 @@
     </row>
     <row r="164" spans="1:4" ht="31.5" customHeight="1">
       <c r="A164" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="8" t="s">
@@ -3905,10 +3915,10 @@
     </row>
     <row r="165" spans="1:4" ht="31.5" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="8" t="s">
@@ -3917,10 +3927,10 @@
     </row>
     <row r="166" spans="1:4" ht="31.5" customHeight="1">
       <c r="A166" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="8" t="s">
@@ -3929,10 +3939,10 @@
     </row>
     <row r="167" spans="1:4" ht="31.5" customHeight="1">
       <c r="A167" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="8" t="s">
@@ -3941,10 +3951,10 @@
     </row>
     <row r="168" spans="1:4" ht="31.5" customHeight="1">
       <c r="A168" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="8" t="s">
@@ -3953,10 +3963,10 @@
     </row>
     <row r="169" spans="1:4" ht="31.5" customHeight="1">
       <c r="A169" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="8" t="s">
@@ -3965,10 +3975,10 @@
     </row>
     <row r="170" spans="1:4" ht="31.5" customHeight="1">
       <c r="A170" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="8" t="s">
@@ -3977,10 +3987,10 @@
     </row>
     <row r="171" spans="1:4" ht="31.5" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="8" t="s">
@@ -3989,10 +3999,10 @@
     </row>
     <row r="172" spans="1:4" ht="31.5" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="8" t="s">
@@ -4001,10 +4011,10 @@
     </row>
     <row r="173" spans="1:4" ht="31.5" customHeight="1">
       <c r="A173" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="8" t="s">
@@ -4013,10 +4023,10 @@
     </row>
     <row r="174" spans="1:4" ht="31.5" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="8" t="s">
@@ -4030,10 +4040,10 @@
     </row>
     <row r="177" spans="1:4" ht="31.5" customHeight="1">
       <c r="A177" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="8" t="s">
@@ -4042,10 +4052,10 @@
     </row>
     <row r="178" spans="1:4" ht="31.5" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="8" t="s">
@@ -4054,10 +4064,10 @@
     </row>
     <row r="179" spans="1:4" ht="31.5" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="8" t="s">
@@ -4066,10 +4076,10 @@
     </row>
     <row r="180" spans="1:4" ht="31.5" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="8" t="s">
@@ -4078,10 +4088,10 @@
     </row>
     <row r="181" spans="1:4" ht="31.5" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="8" t="s">
@@ -4090,10 +4100,10 @@
     </row>
     <row r="182" spans="1:4" ht="31.5" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="8" t="s">
@@ -4102,10 +4112,10 @@
     </row>
     <row r="183" spans="1:4" ht="31.5" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="8" t="s">
@@ -4114,10 +4124,10 @@
     </row>
     <row r="184" spans="1:4" ht="31.5" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="8" t="s">
@@ -4126,10 +4136,10 @@
     </row>
     <row r="185" spans="1:4" ht="31.5" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="8" t="s">
@@ -4138,10 +4148,10 @@
     </row>
     <row r="186" spans="1:4" ht="31.5" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="8" t="s">
@@ -4150,10 +4160,10 @@
     </row>
     <row r="187" spans="1:4" ht="31.5" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="8" t="s">
@@ -4162,10 +4172,10 @@
     </row>
     <row r="188" spans="1:4" ht="31.5" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="8" t="s">
@@ -4174,10 +4184,10 @@
     </row>
     <row r="189" spans="1:4" ht="31.5" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="8" t="s">
@@ -4186,10 +4196,10 @@
     </row>
     <row r="190" spans="1:4" ht="31.5" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="8" t="s">
@@ -4198,10 +4208,10 @@
     </row>
     <row r="191" spans="1:4" ht="31.5" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="8" t="s">
@@ -4210,10 +4220,10 @@
     </row>
     <row r="192" spans="1:4" ht="31.5" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="8" t="s">
@@ -4222,10 +4232,10 @@
     </row>
     <row r="193" spans="1:4" ht="31.5" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="8" t="s">
@@ -4234,10 +4244,10 @@
     </row>
     <row r="194" spans="1:4" ht="31.5" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="8" t="s">
@@ -4246,10 +4256,10 @@
     </row>
     <row r="195" spans="1:4" ht="31.5" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="8" t="s">
@@ -4258,10 +4268,10 @@
     </row>
     <row r="196" spans="1:4" ht="31.5" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="8" t="s">
@@ -4270,10 +4280,10 @@
     </row>
     <row r="197" spans="1:4" ht="31.5" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="8" t="s">
@@ -4282,10 +4292,10 @@
     </row>
     <row r="198" spans="1:4" ht="31.5" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="8" t="s">
@@ -4294,10 +4304,10 @@
     </row>
     <row r="199" spans="1:4" ht="31.5" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="8" t="s">
@@ -4306,10 +4316,10 @@
     </row>
     <row r="200" spans="1:4" ht="31.5" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="8" t="s">
@@ -4318,10 +4328,10 @@
     </row>
     <row r="201" spans="1:4" ht="31.5" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="8" t="s">
@@ -4330,10 +4340,10 @@
     </row>
     <row r="202" spans="1:4" ht="31.5" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="8" t="s">
@@ -4342,10 +4352,10 @@
     </row>
     <row r="203" spans="1:4" ht="31.5" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="8" t="s">
@@ -4354,10 +4364,10 @@
     </row>
     <row r="204" spans="1:4" ht="31.5" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="8" t="s">
@@ -4366,10 +4376,10 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="8" t="s">
@@ -4378,10 +4388,10 @@
     </row>
     <row r="206" spans="1:4" ht="31.5" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="8" t="s">
@@ -4390,10 +4400,10 @@
     </row>
     <row r="207" spans="1:4" ht="31.5" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="8" t="s">
@@ -4402,10 +4412,10 @@
     </row>
     <row r="208" spans="1:4" ht="31.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="8" t="s">
@@ -4414,10 +4424,10 @@
     </row>
     <row r="209" spans="1:4" ht="31.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="8" t="s">
@@ -4426,10 +4436,10 @@
     </row>
     <row r="210" spans="1:4" ht="31.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="8" t="s">
@@ -4438,10 +4448,10 @@
     </row>
     <row r="211" spans="1:4" ht="31.5" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="8" t="s">
@@ -4462,10 +4472,10 @@
     </row>
     <row r="214" spans="1:4" ht="31.5" customHeight="1">
       <c r="A214" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="8" t="s">
@@ -4474,10 +4484,10 @@
     </row>
     <row r="215" spans="1:4" ht="31.5" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="8" t="s">
@@ -4486,10 +4496,10 @@
     </row>
     <row r="216" spans="1:4" ht="31.5" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="8" t="s">
@@ -4498,10 +4508,10 @@
     </row>
     <row r="217" spans="1:4" ht="31.5" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="8" t="s">
@@ -4510,10 +4520,10 @@
     </row>
     <row r="218" spans="1:4" ht="31.5" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="8" t="s">
@@ -4522,10 +4532,10 @@
     </row>
     <row r="219" spans="1:4" ht="31.5" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="8" t="s">
@@ -4534,10 +4544,10 @@
     </row>
     <row r="220" spans="1:4" ht="31.5" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="8" t="s">
@@ -4546,10 +4556,10 @@
     </row>
     <row r="221" spans="1:4" ht="31.5" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="8" t="s">
@@ -4558,10 +4568,10 @@
     </row>
     <row r="222" spans="1:4" ht="31.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="8" t="s">
@@ -4570,10 +4580,10 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="8" t="s">
@@ -4582,10 +4592,10 @@
     </row>
     <row r="224" spans="1:4" ht="31.5" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="8" t="s">
@@ -4594,10 +4604,10 @@
     </row>
     <row r="225" spans="1:4" ht="31.5" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="8" t="s">
@@ -4606,10 +4616,10 @@
     </row>
     <row r="226" spans="1:4" ht="31.5" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="8" t="s">
@@ -4618,10 +4628,10 @@
     </row>
     <row r="227" spans="1:4" ht="31.5" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="8" t="s">
@@ -4630,10 +4640,10 @@
     </row>
     <row r="228" spans="1:4" ht="31.5" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="8" t="s">
@@ -4642,10 +4652,10 @@
     </row>
     <row r="229" spans="1:4" ht="31.5" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="8" t="s">
@@ -4654,10 +4664,10 @@
     </row>
     <row r="230" spans="1:4" ht="31.5" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="8" t="s">
@@ -4666,10 +4676,10 @@
     </row>
     <row r="231" spans="1:4" ht="31.5" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="8" t="s">
@@ -4678,10 +4688,10 @@
     </row>
     <row r="232" spans="1:4" ht="31.5" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="8" t="s">
@@ -4690,10 +4700,10 @@
     </row>
     <row r="233" spans="1:4" ht="31.5" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="8" t="s">
@@ -4702,10 +4712,10 @@
     </row>
     <row r="234" spans="1:4" ht="31.5" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="8" t="s">
@@ -4714,10 +4724,10 @@
     </row>
     <row r="235" spans="1:4" ht="31.5" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="8" t="s">
@@ -4736,10 +4746,10 @@
     </row>
     <row r="238" spans="1:4" ht="31.5" customHeight="1">
       <c r="A238" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="8" t="s">
@@ -4748,10 +4758,10 @@
     </row>
     <row r="239" spans="1:4" ht="31.5" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="8" t="s">
@@ -4760,10 +4770,10 @@
     </row>
     <row r="240" spans="1:4" ht="31.5" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="8" t="s">
@@ -4772,10 +4782,10 @@
     </row>
     <row r="241" spans="1:4" ht="31.5" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="8" t="s">
@@ -4784,10 +4794,10 @@
     </row>
     <row r="242" spans="1:4" ht="31.5" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="8" t="s">
@@ -4796,10 +4806,10 @@
     </row>
     <row r="243" spans="1:4" ht="31.5" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="8" t="s">
@@ -4808,10 +4818,10 @@
     </row>
     <row r="244" spans="1:4" ht="31.5" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="8" t="s">
@@ -4820,10 +4830,10 @@
     </row>
     <row r="245" spans="1:4" ht="31.5" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="8" t="s">
@@ -4832,10 +4842,10 @@
     </row>
     <row r="246" spans="1:4" ht="31.5" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="8" t="s">
@@ -4844,10 +4854,10 @@
     </row>
     <row r="247" spans="1:4" ht="31.5" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="8" t="s">
@@ -4856,10 +4866,10 @@
     </row>
     <row r="248" spans="1:4" ht="31.5" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="8" t="s">
@@ -4868,10 +4878,10 @@
     </row>
     <row r="249" spans="1:4" ht="31.5" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="8" t="s">
@@ -4880,10 +4890,10 @@
     </row>
     <row r="250" spans="1:4" ht="31.5" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="8" t="s">
@@ -4892,10 +4902,10 @@
     </row>
     <row r="251" spans="1:4" ht="31.5" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="8" t="s">
@@ -4904,10 +4914,10 @@
     </row>
     <row r="252" spans="1:4" ht="31.5" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="8" t="s">
@@ -4916,10 +4926,10 @@
     </row>
     <row r="253" spans="1:4" ht="31.5" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="8" t="s">
@@ -4928,10 +4938,10 @@
     </row>
     <row r="254" spans="1:4" ht="31.5" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="8" t="s">
@@ -4940,10 +4950,10 @@
     </row>
     <row r="255" spans="1:4" ht="31.5" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="8" t="s">
@@ -4952,10 +4962,10 @@
     </row>
     <row r="256" spans="1:4" ht="31.5" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="8" t="s">
@@ -4964,10 +4974,10 @@
     </row>
     <row r="257" spans="1:4" ht="31.5" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="8" t="s">
@@ -4976,10 +4986,10 @@
     </row>
     <row r="258" spans="1:4" ht="31.5" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="8" t="s">
@@ -4988,10 +4998,10 @@
     </row>
     <row r="259" spans="1:4" ht="31.5" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="8" t="s">
@@ -5000,10 +5010,10 @@
     </row>
     <row r="260" spans="1:4" ht="31.5" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="8" t="s">
@@ -5012,10 +5022,10 @@
     </row>
     <row r="261" spans="1:4" ht="31.5" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="8" t="s">
@@ -5024,10 +5034,10 @@
     </row>
     <row r="262" spans="1:4" ht="31.5" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="8" t="s">
@@ -5036,10 +5046,10 @@
     </row>
     <row r="263" spans="1:4" ht="31.5" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="8" t="s">
@@ -5048,10 +5058,10 @@
     </row>
     <row r="264" spans="1:4" ht="31.5" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="8" t="s">
@@ -5060,10 +5070,10 @@
     </row>
     <row r="265" spans="1:4" ht="31.5" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="8" t="s">
@@ -5072,10 +5082,10 @@
     </row>
     <row r="266" spans="1:4" ht="31.5" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="8" t="s">
@@ -5084,10 +5094,10 @@
     </row>
     <row r="267" spans="1:4" ht="31.5" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="8" t="s">
@@ -5096,10 +5106,10 @@
     </row>
     <row r="268" spans="1:4" ht="31.5" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="8" t="s">
@@ -5108,10 +5118,10 @@
     </row>
     <row r="269" spans="1:4" ht="31.5" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="8" t="s">
@@ -5120,10 +5130,10 @@
     </row>
     <row r="270" spans="1:4" ht="31.5" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="8" t="s">
@@ -5132,10 +5142,10 @@
     </row>
     <row r="271" spans="1:4" ht="31.5" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="8" t="s">
@@ -5144,10 +5154,10 @@
     </row>
     <row r="272" spans="1:4" ht="31.5" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="8" t="s">
@@ -5166,10 +5176,10 @@
     </row>
     <row r="275" spans="1:4" ht="31.5" customHeight="1">
       <c r="A275" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="8" t="s">
@@ -5178,10 +5188,10 @@
     </row>
     <row r="276" spans="1:4" ht="31.5" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="8" t="s">
@@ -5190,10 +5200,10 @@
     </row>
     <row r="277" spans="1:4" ht="31.5" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="8" t="s">
@@ -5202,10 +5212,10 @@
     </row>
     <row r="278" spans="1:4" ht="31.5" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="8" t="s">
@@ -5214,10 +5224,10 @@
     </row>
     <row r="279" spans="1:4" ht="31.5" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="8" t="s">
@@ -5226,10 +5236,10 @@
     </row>
     <row r="280" spans="1:4" ht="31.5" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="8" t="s">
@@ -5238,10 +5248,10 @@
     </row>
     <row r="281" spans="1:4" ht="31.5" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="8" t="s">
@@ -5250,10 +5260,10 @@
     </row>
     <row r="282" spans="1:4" ht="31.5" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="8" t="s">
@@ -5262,10 +5272,10 @@
     </row>
     <row r="283" spans="1:4" ht="31.5" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="8" t="s">
@@ -5274,10 +5284,10 @@
     </row>
     <row r="284" spans="1:4" ht="31.5" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="8" t="s">
@@ -5286,10 +5296,10 @@
     </row>
     <row r="285" spans="1:4" ht="31.5" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="8" t="s">
@@ -5298,10 +5308,10 @@
     </row>
     <row r="286" spans="1:4" ht="31.5" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="8" t="s">
@@ -5310,10 +5320,10 @@
     </row>
     <row r="287" spans="1:4" ht="31.5" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="8" t="s">
@@ -5322,10 +5332,10 @@
     </row>
     <row r="288" spans="1:4" ht="31.5" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="8" t="s">
@@ -5334,10 +5344,10 @@
     </row>
     <row r="289" spans="1:4" ht="31.5" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="8" t="s">
@@ -5346,10 +5356,10 @@
     </row>
     <row r="290" spans="1:4" ht="31.5" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="8" t="s">
@@ -5358,10 +5368,10 @@
     </row>
     <row r="291" spans="1:4" ht="31.5" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="8" t="s">
@@ -5370,10 +5380,10 @@
     </row>
     <row r="292" spans="1:4" ht="31.5" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="8" t="s">
@@ -5382,10 +5392,10 @@
     </row>
     <row r="293" spans="1:4" ht="31.5" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="8" t="s">
@@ -5404,10 +5414,10 @@
     </row>
     <row r="296" spans="1:4" ht="31.5" customHeight="1">
       <c r="A296" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="8" t="s">
@@ -5416,10 +5426,10 @@
     </row>
     <row r="297" spans="1:4" ht="31.5" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="8" t="s">
@@ -5428,10 +5438,10 @@
     </row>
     <row r="298" spans="1:4" ht="31.5" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="8" t="s">
@@ -5440,10 +5450,10 @@
     </row>
     <row r="299" spans="1:4" ht="31.5" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="8" t="s">
@@ -5452,10 +5462,10 @@
     </row>
     <row r="300" spans="1:4" ht="31.5" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="8" t="s">
@@ -5464,10 +5474,10 @@
     </row>
     <row r="301" spans="1:4" ht="31.5" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="8" t="s">
@@ -5476,10 +5486,10 @@
     </row>
     <row r="302" spans="1:4" ht="31.5" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="8" t="s">
@@ -5488,10 +5498,10 @@
     </row>
     <row r="303" spans="1:4" ht="31.5" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="8" t="s">
@@ -5500,10 +5510,10 @@
     </row>
     <row r="304" spans="1:4" ht="31.5" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="8" t="s">
@@ -5512,10 +5522,10 @@
     </row>
     <row r="305" spans="1:4" ht="31.5" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="8" t="s">
@@ -5524,10 +5534,10 @@
     </row>
     <row r="306" spans="1:4" ht="31.5" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="8" t="s">
@@ -5536,10 +5546,10 @@
     </row>
     <row r="307" spans="1:4" ht="31.5" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="8" t="s">
@@ -5548,10 +5558,10 @@
     </row>
     <row r="308" spans="1:4" ht="31.5" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="8" t="s">
@@ -5560,10 +5570,10 @@
     </row>
     <row r="309" spans="1:4" ht="31.5" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="8" t="s">
@@ -5572,10 +5582,10 @@
     </row>
     <row r="310" spans="1:4" ht="31.5" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="8" t="s">
@@ -5584,10 +5594,10 @@
     </row>
     <row r="311" spans="1:4" ht="31.5" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="8" t="s">
@@ -5596,10 +5606,10 @@
     </row>
     <row r="312" spans="1:4" ht="31.5" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="8" t="s">
@@ -5608,10 +5618,10 @@
     </row>
     <row r="313" spans="1:4" ht="31.5" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="8" t="s">
@@ -5620,10 +5630,10 @@
     </row>
     <row r="314" spans="1:4" ht="31.5" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="8" t="s">
@@ -5632,10 +5642,10 @@
     </row>
     <row r="315" spans="1:4" ht="31.5" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="8" t="s">
@@ -5644,10 +5654,10 @@
     </row>
     <row r="316" spans="1:4" ht="31.5" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="8" t="s">
@@ -5656,10 +5666,10 @@
     </row>
     <row r="317" spans="1:4" ht="31.5" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="8" t="s">
@@ -5668,10 +5678,10 @@
     </row>
     <row r="318" spans="1:4" ht="31.5" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="8" t="s">
@@ -5680,10 +5690,10 @@
     </row>
     <row r="319" spans="1:4" ht="31.5" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="8" t="s">
@@ -5692,10 +5702,10 @@
     </row>
     <row r="320" spans="1:4" ht="31.5" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="8" t="s">
@@ -5704,10 +5714,10 @@
     </row>
     <row r="321" spans="1:4" ht="31.5" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="8" t="s">
@@ -5716,10 +5726,10 @@
     </row>
     <row r="322" spans="1:4" ht="31.5" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="8" t="s">
@@ -5728,10 +5738,10 @@
     </row>
     <row r="323" spans="1:4" ht="31.5" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="8" t="s">
@@ -5740,10 +5750,10 @@
     </row>
     <row r="324" spans="1:4" ht="31.5" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="8" t="s">
@@ -5752,10 +5762,10 @@
     </row>
     <row r="325" spans="1:4" ht="31.5" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="8" t="s">
@@ -5764,10 +5774,10 @@
     </row>
     <row r="326" spans="1:4" ht="31.5" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="8" t="s">
@@ -5776,10 +5786,10 @@
     </row>
     <row r="327" spans="1:4" ht="31.5" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="8" t="s">
@@ -5788,10 +5798,10 @@
     </row>
     <row r="328" spans="1:4" ht="31.5" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="8" t="s">
@@ -5800,10 +5810,10 @@
     </row>
     <row r="329" spans="1:4" ht="31.5" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="8" t="s">
@@ -5812,10 +5822,10 @@
     </row>
     <row r="330" spans="1:4" ht="31.5" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="8" t="s">
@@ -5824,10 +5834,10 @@
     </row>
     <row r="331" spans="1:4" ht="31.5" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="8" t="s">
@@ -5836,10 +5846,10 @@
     </row>
     <row r="332" spans="1:4" ht="31.5" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="8" t="s">
@@ -5848,10 +5858,10 @@
     </row>
     <row r="333" spans="1:4" ht="31.5" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="8" t="s">
@@ -5870,10 +5880,10 @@
     </row>
     <row r="336" spans="1:4" ht="31.5" customHeight="1">
       <c r="A336" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="8" t="s">
@@ -5882,10 +5892,10 @@
     </row>
     <row r="337" spans="1:4" ht="31.5" customHeight="1">
       <c r="A337" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="8" t="s">
@@ -5894,10 +5904,10 @@
     </row>
     <row r="338" spans="1:4" ht="31.5" customHeight="1">
       <c r="A338" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="8" t="s">
@@ -5906,10 +5916,10 @@
     </row>
     <row r="339" spans="1:4" ht="31.5" customHeight="1">
       <c r="A339" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="8" t="s">
@@ -5918,10 +5928,10 @@
     </row>
     <row r="340" spans="1:4" ht="31.5" customHeight="1">
       <c r="A340" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="8" t="s">
@@ -5930,10 +5940,10 @@
     </row>
     <row r="341" spans="1:4" ht="31.5" customHeight="1">
       <c r="A341" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="8" t="s">
@@ -5942,10 +5952,10 @@
     </row>
     <row r="342" spans="1:4" ht="31.5" customHeight="1">
       <c r="A342" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="8" t="s">
@@ -5954,10 +5964,10 @@
     </row>
     <row r="343" spans="1:4" ht="31.5" customHeight="1">
       <c r="A343" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="8" t="s">
@@ -5966,10 +5976,10 @@
     </row>
     <row r="344" spans="1:4" ht="31.5" customHeight="1">
       <c r="A344" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="11"/>
       <c r="D344" s="8" t="s">
@@ -5978,10 +5988,10 @@
     </row>
     <row r="345" spans="1:4" ht="31.5" customHeight="1">
       <c r="A345" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="8" t="s">
@@ -5990,10 +6000,10 @@
     </row>
     <row r="346" spans="1:4" ht="31.5" customHeight="1">
       <c r="A346" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="8" t="s">
@@ -6002,10 +6012,10 @@
     </row>
     <row r="347" spans="1:4" ht="31.5" customHeight="1">
       <c r="A347" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="8" t="s">
@@ -6014,10 +6024,10 @@
     </row>
     <row r="348" spans="1:4" ht="31.5" customHeight="1">
       <c r="A348" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="8" t="s">
@@ -6026,10 +6036,10 @@
     </row>
     <row r="349" spans="1:4" ht="31.5" customHeight="1">
       <c r="A349" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="8" t="s">
@@ -6038,10 +6048,10 @@
     </row>
     <row r="350" spans="1:4" ht="31.5" customHeight="1">
       <c r="A350" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="8" t="s">
@@ -6050,10 +6060,10 @@
     </row>
     <row r="351" spans="1:4" ht="31.5" customHeight="1">
       <c r="A351" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="8" t="s">
@@ -6062,10 +6072,10 @@
     </row>
     <row r="352" spans="1:4" ht="31.5" customHeight="1">
       <c r="A352" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="8" t="s">
@@ -6074,10 +6084,10 @@
     </row>
     <row r="353" spans="1:4" ht="31.5" customHeight="1">
       <c r="A353" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="8" t="s">
@@ -6096,10 +6106,10 @@
     </row>
     <row r="356" spans="1:4" ht="31.5" customHeight="1">
       <c r="A356" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="8" t="s">
@@ -6108,10 +6118,10 @@
     </row>
     <row r="357" spans="1:4" ht="31.5" customHeight="1">
       <c r="A357" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="8" t="s">
@@ -6120,10 +6130,10 @@
     </row>
     <row r="358" spans="1:4" ht="31.5" customHeight="1">
       <c r="A358" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="8" t="s">
@@ -6132,10 +6142,10 @@
     </row>
     <row r="359" spans="1:4" ht="31.5" customHeight="1">
       <c r="A359" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="8" t="s">
@@ -6144,10 +6154,10 @@
     </row>
     <row r="360" spans="1:4" ht="31.5" customHeight="1">
       <c r="A360" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="8" t="s">
@@ -6156,10 +6166,10 @@
     </row>
     <row r="361" spans="1:4" ht="31.5" customHeight="1">
       <c r="A361" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="8" t="s">
@@ -6168,10 +6178,10 @@
     </row>
     <row r="362" spans="1:4" ht="31.5" customHeight="1">
       <c r="A362" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="8" t="s">
@@ -6180,10 +6190,10 @@
     </row>
     <row r="363" spans="1:4" ht="31.5" customHeight="1">
       <c r="A363" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="8" t="s">
@@ -6192,10 +6202,10 @@
     </row>
     <row r="364" spans="1:4" ht="31.5" customHeight="1">
       <c r="A364" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="8" t="s">
@@ -6204,10 +6214,10 @@
     </row>
     <row r="365" spans="1:4" ht="31.5" customHeight="1">
       <c r="A365" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="8" t="s">
@@ -6216,10 +6226,10 @@
     </row>
     <row r="366" spans="1:4" ht="31.5" customHeight="1">
       <c r="A366" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="8" t="s">
@@ -6228,10 +6238,10 @@
     </row>
     <row r="367" spans="1:4" ht="31.5" customHeight="1">
       <c r="A367" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="8" t="s">
@@ -6240,10 +6250,10 @@
     </row>
     <row r="368" spans="1:4" ht="31.5" customHeight="1">
       <c r="A368" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="8" t="s">
@@ -6252,10 +6262,10 @@
     </row>
     <row r="369" spans="1:4" ht="31.5" customHeight="1">
       <c r="A369" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="8" t="s">
@@ -6264,10 +6274,10 @@
     </row>
     <row r="370" spans="1:4" ht="31.5" customHeight="1">
       <c r="A370" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="8" t="s">
@@ -6276,10 +6286,10 @@
     </row>
     <row r="371" spans="1:4" ht="31.5" customHeight="1">
       <c r="A371" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="8" t="s">
@@ -6288,10 +6298,10 @@
     </row>
     <row r="372" spans="1:4" ht="31.5" customHeight="1">
       <c r="A372" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="8" t="s">
@@ -6300,10 +6310,10 @@
     </row>
     <row r="373" spans="1:4" ht="31.5" customHeight="1">
       <c r="A373" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="8" t="s">
@@ -6312,10 +6322,10 @@
     </row>
     <row r="374" spans="1:4" ht="31.5" customHeight="1">
       <c r="A374" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="8" t="s">
@@ -6324,10 +6334,10 @@
     </row>
     <row r="375" spans="1:4" ht="31.5" customHeight="1">
       <c r="A375" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="8" t="s">
@@ -6336,10 +6346,10 @@
     </row>
     <row r="376" spans="1:4" ht="31.5" customHeight="1">
       <c r="A376" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="8" t="s">
@@ -6348,10 +6358,10 @@
     </row>
     <row r="377" spans="1:4" ht="31.5" customHeight="1">
       <c r="A377" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="8" t="s">
@@ -6360,10 +6370,10 @@
     </row>
     <row r="378" spans="1:4" ht="31.5" customHeight="1">
       <c r="A378" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="8" t="s">
@@ -6372,10 +6382,10 @@
     </row>
     <row r="379" spans="1:4" ht="31.5" customHeight="1">
       <c r="A379" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="8" t="s">
@@ -6384,10 +6394,10 @@
     </row>
     <row r="380" spans="1:4" ht="31.5" customHeight="1">
       <c r="A380" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="8" t="s">
@@ -6396,10 +6406,10 @@
     </row>
     <row r="381" spans="1:4" ht="31.5" customHeight="1">
       <c r="A381" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="8" t="s">
@@ -6408,10 +6418,10 @@
     </row>
     <row r="382" spans="1:4" ht="31.5" customHeight="1">
       <c r="A382" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="8" t="s">
@@ -6420,10 +6430,10 @@
     </row>
     <row r="383" spans="1:4" ht="31.5" customHeight="1">
       <c r="A383" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="8" t="s">
@@ -6432,10 +6442,10 @@
     </row>
     <row r="384" spans="1:4" ht="31.5" customHeight="1">
       <c r="A384" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="8" t="s">
@@ -6444,10 +6454,10 @@
     </row>
     <row r="385" spans="1:4" ht="31.5" customHeight="1">
       <c r="A385" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="8" t="s">
@@ -6456,10 +6466,10 @@
     </row>
     <row r="386" spans="1:4" ht="31.5" customHeight="1">
       <c r="A386" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="8" t="s">
@@ -6468,10 +6478,10 @@
     </row>
     <row r="387" spans="1:4" ht="31.5" customHeight="1">
       <c r="A387" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="8" t="s">
@@ -6480,10 +6490,10 @@
     </row>
     <row r="388" spans="1:4" ht="31.5" customHeight="1">
       <c r="A388" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="8" t="s">
@@ -6492,10 +6502,10 @@
     </row>
     <row r="389" spans="1:4" ht="31.5" customHeight="1">
       <c r="A389" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="8" t="s">
@@ -6504,10 +6514,10 @@
     </row>
     <row r="390" spans="1:4" ht="31.5" customHeight="1">
       <c r="A390" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="8" t="s">
@@ -6516,10 +6526,10 @@
     </row>
     <row r="391" spans="1:4" ht="31.5" customHeight="1">
       <c r="A391" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="8" t="s">
@@ -6528,10 +6538,10 @@
     </row>
     <row r="392" spans="1:4" ht="31.5" customHeight="1">
       <c r="A392" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="8" t="s">
@@ -6540,10 +6550,10 @@
     </row>
     <row r="393" spans="1:4" ht="31.5" customHeight="1">
       <c r="A393" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="8" t="s">
@@ -6552,10 +6562,10 @@
     </row>
     <row r="394" spans="1:4" ht="31.5" customHeight="1">
       <c r="A394" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="8" t="s">
@@ -6564,10 +6574,10 @@
     </row>
     <row r="395" spans="1:4" ht="31.5" customHeight="1">
       <c r="A395" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="8" t="s">
@@ -6576,10 +6586,10 @@
     </row>
     <row r="396" spans="1:4" ht="31.5" customHeight="1">
       <c r="A396" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="8" t="s">
@@ -6588,10 +6598,10 @@
     </row>
     <row r="397" spans="1:4" ht="31.5" customHeight="1">
       <c r="A397" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="8" t="s">
@@ -6600,10 +6610,10 @@
     </row>
     <row r="398" spans="1:4" ht="31.5" customHeight="1">
       <c r="A398" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="8" t="s">
@@ -6612,10 +6622,10 @@
     </row>
     <row r="399" spans="1:4" ht="31.5" customHeight="1">
       <c r="A399" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="8" t="s">
@@ -6634,10 +6644,10 @@
     </row>
     <row r="402" spans="1:4" ht="31.5" customHeight="1">
       <c r="A402" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="8" t="s">
@@ -6646,10 +6656,10 @@
     </row>
     <row r="403" spans="1:4" ht="31.5" customHeight="1">
       <c r="A403" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="8" t="s">
@@ -6658,10 +6668,10 @@
     </row>
     <row r="404" spans="1:4" ht="31.5" customHeight="1">
       <c r="A404" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="8" t="s">
@@ -6670,10 +6680,10 @@
     </row>
     <row r="405" spans="1:4" ht="31.5" customHeight="1">
       <c r="A405" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="8" t="s">
@@ -6682,10 +6692,10 @@
     </row>
     <row r="406" spans="1:4" ht="31.5" customHeight="1">
       <c r="A406" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="8" t="s">
@@ -6694,10 +6704,10 @@
     </row>
     <row r="407" spans="1:4" ht="31.5" customHeight="1">
       <c r="A407" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="8" t="s">
@@ -6716,10 +6726,10 @@
     </row>
     <row r="410" spans="1:4" ht="31.5" customHeight="1">
       <c r="A410" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="8" t="s">
@@ -6728,10 +6738,10 @@
     </row>
     <row r="411" spans="1:4" ht="31.5" customHeight="1">
       <c r="A411" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="8" t="s">
@@ -6740,10 +6750,10 @@
     </row>
     <row r="412" spans="1:4" ht="31.5" customHeight="1">
       <c r="A412" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="8" t="s">
@@ -6752,10 +6762,10 @@
     </row>
     <row r="413" spans="1:4" ht="31.5" customHeight="1">
       <c r="A413" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="8" t="s">
@@ -6764,10 +6774,10 @@
     </row>
     <row r="414" spans="1:4" ht="31.5" customHeight="1">
       <c r="A414" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="8" t="s">
@@ -6776,10 +6786,10 @@
     </row>
     <row r="415" spans="1:4" ht="31.5" customHeight="1">
       <c r="A415" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="8" t="s">
@@ -6788,10 +6798,10 @@
     </row>
     <row r="416" spans="1:4" ht="31.5" customHeight="1">
       <c r="A416" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="8" t="s">
@@ -6800,10 +6810,10 @@
     </row>
     <row r="417" spans="1:4" ht="31.5" customHeight="1">
       <c r="A417" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="8" t="s">
@@ -6812,10 +6822,10 @@
     </row>
     <row r="418" spans="1:4" ht="31.5" customHeight="1">
       <c r="A418" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="8" t="s">
@@ -6824,10 +6834,10 @@
     </row>
     <row r="419" spans="1:4" ht="31.5" customHeight="1">
       <c r="A419" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="8" t="s">
@@ -6836,10 +6846,10 @@
     </row>
     <row r="420" spans="1:4" ht="31.5" customHeight="1">
       <c r="A420" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="8" t="s">
@@ -6848,10 +6858,10 @@
     </row>
     <row r="421" spans="1:4" ht="31.5" customHeight="1">
       <c r="A421" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="8" t="s">
@@ -6860,10 +6870,10 @@
     </row>
     <row r="422" spans="1:4" ht="31.5" customHeight="1">
       <c r="A422" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="8" t="s">
@@ -6872,10 +6882,10 @@
     </row>
     <row r="423" spans="1:4" ht="31.5" customHeight="1">
       <c r="A423" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="8" t="s">
@@ -6884,10 +6894,10 @@
     </row>
     <row r="424" spans="1:4" ht="31.5" customHeight="1">
       <c r="A424" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="8" t="s">
@@ -6896,10 +6906,10 @@
     </row>
     <row r="425" spans="1:4" ht="31.5" customHeight="1">
       <c r="A425" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="8" t="s">
@@ -6908,10 +6918,10 @@
     </row>
     <row r="426" spans="1:4" ht="31.5" customHeight="1">
       <c r="A426" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="8" t="s">
@@ -6920,10 +6930,10 @@
     </row>
     <row r="427" spans="1:4" ht="31.5" customHeight="1">
       <c r="A427" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="8" t="s">
@@ -6932,10 +6942,10 @@
     </row>
     <row r="428" spans="1:4" ht="31.5" customHeight="1">
       <c r="A428" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="8" t="s">
@@ -6944,10 +6954,10 @@
     </row>
     <row r="429" spans="1:4" ht="31.5" customHeight="1">
       <c r="A429" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="8" t="s">
@@ -6956,10 +6966,10 @@
     </row>
     <row r="430" spans="1:4" ht="31.5" customHeight="1">
       <c r="A430" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="8" t="s">
@@ -6968,10 +6978,10 @@
     </row>
     <row r="431" spans="1:4" ht="31.5" customHeight="1">
       <c r="A431" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="8" t="s">
@@ -6980,10 +6990,10 @@
     </row>
     <row r="432" spans="1:4" ht="31.5" customHeight="1">
       <c r="A432" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="8" t="s">
@@ -6992,10 +7002,10 @@
     </row>
     <row r="433" spans="1:4" ht="31.5" customHeight="1">
       <c r="A433" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="8" t="s">
@@ -7004,10 +7014,10 @@
     </row>
     <row r="434" spans="1:4" ht="31.5" customHeight="1">
       <c r="A434" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="8" t="s">
@@ -7016,10 +7026,10 @@
     </row>
     <row r="435" spans="1:4" ht="31.5" customHeight="1">
       <c r="A435" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="8" t="s">
@@ -7028,10 +7038,10 @@
     </row>
     <row r="436" spans="1:4" ht="31.5" customHeight="1">
       <c r="A436" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="8" t="s">
@@ -7040,10 +7050,10 @@
     </row>
     <row r="437" spans="1:4" ht="31.5" customHeight="1">
       <c r="A437" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="8" t="s">
@@ -7052,10 +7062,10 @@
     </row>
     <row r="438" spans="1:4" ht="31.5" customHeight="1">
       <c r="A438" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="8" t="s">
@@ -7064,10 +7074,10 @@
     </row>
     <row r="439" spans="1:4" ht="31.5" customHeight="1">
       <c r="A439" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="8" t="s">
@@ -7076,10 +7086,10 @@
     </row>
     <row r="440" spans="1:4" ht="31.5" customHeight="1">
       <c r="A440" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="8" t="s">
@@ -7088,10 +7098,10 @@
     </row>
     <row r="441" spans="1:4" ht="31.5" customHeight="1">
       <c r="A441" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="8" t="s">
@@ -7100,10 +7110,10 @@
     </row>
     <row r="442" spans="1:4" ht="31.5" customHeight="1">
       <c r="A442" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="8" t="s">
@@ -7112,10 +7122,10 @@
     </row>
     <row r="443" spans="1:4" ht="31.5" customHeight="1">
       <c r="A443" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="8" t="s">
@@ -7124,10 +7134,10 @@
     </row>
     <row r="444" spans="1:4" ht="31.5" customHeight="1">
       <c r="A444" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="8" t="s">
@@ -7136,10 +7146,10 @@
     </row>
     <row r="445" spans="1:4" ht="31.5" customHeight="1">
       <c r="A445" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="8" t="s">
@@ -7148,10 +7158,10 @@
     </row>
     <row r="446" spans="1:4" ht="31.5" customHeight="1">
       <c r="A446" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="8" t="s">
@@ -7160,10 +7170,10 @@
     </row>
     <row r="447" spans="1:4" ht="31.5" customHeight="1">
       <c r="A447" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="8" t="s">
@@ -7172,10 +7182,10 @@
     </row>
     <row r="448" spans="1:4" ht="31.5" customHeight="1">
       <c r="A448" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="8" t="s">
@@ -7184,10 +7194,10 @@
     </row>
     <row r="449" spans="1:4" ht="31.5" customHeight="1">
       <c r="A449" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="8" t="s">
@@ -7196,10 +7206,10 @@
     </row>
     <row r="450" spans="1:4" ht="31.5" customHeight="1">
       <c r="A450" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="8" t="s">
@@ -7208,10 +7218,10 @@
     </row>
     <row r="451" spans="1:4" ht="31.5" customHeight="1">
       <c r="A451" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="8" t="s">
@@ -7220,10 +7230,10 @@
     </row>
     <row r="452" spans="1:4" ht="31.5" customHeight="1">
       <c r="A452" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="8" t="s">
@@ -7232,10 +7242,10 @@
     </row>
     <row r="453" spans="1:4" ht="31.5" customHeight="1">
       <c r="A453" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="8" t="s">
@@ -7244,10 +7254,10 @@
     </row>
     <row r="454" spans="1:4" ht="31.5" customHeight="1">
       <c r="A454" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="8" t="s">
@@ -7256,10 +7266,10 @@
     </row>
     <row r="455" spans="1:4" ht="31.5" customHeight="1">
       <c r="A455" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="8" t="s">
@@ -7268,10 +7278,10 @@
     </row>
     <row r="456" spans="1:4" ht="31.5" customHeight="1">
       <c r="A456" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="8" t="s">
@@ -7280,10 +7290,10 @@
     </row>
     <row r="457" spans="1:4" ht="31.5" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="8" t="s">
@@ -7292,10 +7302,10 @@
     </row>
     <row r="458" spans="1:4" ht="31.5" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="8" t="s">
@@ -7304,10 +7314,10 @@
     </row>
     <row r="459" spans="1:4" ht="31.5" customHeight="1">
       <c r="A459" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="8" t="s">
@@ -7316,10 +7326,10 @@
     </row>
     <row r="460" spans="1:4" ht="31.5" customHeight="1">
       <c r="A460" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="8" t="s">
@@ -7328,10 +7338,10 @@
     </row>
     <row r="461" spans="1:4" ht="31.5" customHeight="1">
       <c r="A461" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="8" t="s">
@@ -7340,10 +7350,10 @@
     </row>
     <row r="462" spans="1:4" ht="31.5" customHeight="1">
       <c r="A462" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="8" t="s">
@@ -7352,10 +7362,10 @@
     </row>
     <row r="463" spans="1:4" ht="31.5" customHeight="1">
       <c r="A463" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="8" t="s">
@@ -7364,10 +7374,10 @@
     </row>
     <row r="464" spans="1:4" ht="31.5" customHeight="1">
       <c r="A464" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="8" t="s">
@@ -7376,10 +7386,10 @@
     </row>
     <row r="465" spans="1:4" ht="31.5" customHeight="1">
       <c r="A465" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="8" t="s">
@@ -7388,10 +7398,10 @@
     </row>
     <row r="466" spans="1:4" ht="31.5" customHeight="1">
       <c r="A466" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="8" t="s">
@@ -7400,10 +7410,10 @@
     </row>
     <row r="467" spans="1:4" ht="31.5" customHeight="1">
       <c r="A467" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="8" t="s">
@@ -7412,10 +7422,10 @@
     </row>
     <row r="468" spans="1:4" ht="31.5" customHeight="1">
       <c r="A468" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="8" t="s">
@@ -7424,10 +7434,10 @@
     </row>
     <row r="469" spans="1:4" ht="31.5" customHeight="1">
       <c r="A469" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="8" t="s">
@@ -7447,10 +7457,10 @@
     </row>
     <row r="472" spans="1:4" ht="31.5" customHeight="1">
       <c r="A472" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="8" t="s">
@@ -7459,10 +7469,10 @@
     </row>
     <row r="473" spans="1:4" ht="31.5" customHeight="1">
       <c r="A473" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="8" t="s">
@@ -7471,10 +7481,10 @@
     </row>
     <row r="474" spans="1:4" ht="31.5" customHeight="1">
       <c r="A474" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="8" t="s">
@@ -7483,10 +7493,10 @@
     </row>
     <row r="475" spans="1:4" ht="31.5" customHeight="1">
       <c r="A475" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="8" t="s">
@@ -7495,10 +7505,10 @@
     </row>
     <row r="476" spans="1:4" ht="31.5" customHeight="1">
       <c r="A476" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="8" t="s">
@@ -7507,10 +7517,10 @@
     </row>
     <row r="477" spans="1:4" ht="31.5" customHeight="1">
       <c r="A477" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="8" t="s">
@@ -7519,10 +7529,10 @@
     </row>
     <row r="478" spans="1:4" ht="31.5" customHeight="1">
       <c r="A478" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="8" t="s">
@@ -7531,10 +7541,10 @@
     </row>
     <row r="479" spans="1:4" ht="31.5" customHeight="1">
       <c r="A479" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="8" t="s">
@@ -7543,10 +7553,10 @@
     </row>
     <row r="480" spans="1:4" ht="31.5" customHeight="1">
       <c r="A480" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="8" t="s">
@@ -7555,10 +7565,10 @@
     </row>
     <row r="481" spans="1:4" ht="31.5" customHeight="1">
       <c r="A481" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="8" t="s">
@@ -7600,7 +7610,7 @@
     <hyperlink ref="B36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
     <hyperlink ref="B37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
     <hyperlink ref="B38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B39" r:id="rId34" display="Minimum no. of operations required to make an array palindrome" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
     <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EBF6A4-5485-4745-805D-6C4E27A6B820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0F84C3-E22C-48E8-96D7-1A6F9AEBF3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1512,6 +1512,9 @@
   </si>
   <si>
     <t>find median</t>
+  </si>
+  <si>
+    <t>four pointers - TL, TR, BL, BR</t>
   </si>
 </sst>
 </file>
@@ -1957,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2521,9 +2524,11 @@
       <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="D44" s="8" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0F84C3-E22C-48E8-96D7-1A6F9AEBF3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D8E1B-80B9-4101-972E-263791B83876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1515,6 +1515,9 @@
   </si>
   <si>
     <t>four pointers - TL, TR, BL, BR</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1964,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2538,9 +2541,11 @@
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="D45" s="8" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D8E1B-80B9-4101-972E-263791B83876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982540C-CA1C-43F2-A705-A36F786879E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="497">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Swap elements of row by cols</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1967,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2615,9 +2618,11 @@
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>496</v>
+      </c>
       <c r="D51" s="8" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982540C-CA1C-43F2-A705-A36F786879E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23244C5-A959-47E5-A601-C619A0BDFEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="497">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1967,7 +1967,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2558,9 +2558,11 @@
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="D46" s="8" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23244C5-A959-47E5-A601-C619A0BDFEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805D5F11-4BEE-4007-A6AD-5EA91FD97163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="498">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
   </si>
   <si>
     <t>Print elements in sorted order using row-column wise sorted matrix</t>
@@ -1521,6 +1518,13 @@
   </si>
   <si>
     <t>Swap elements of row by cols</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's in sorted 0 1 matrix</t>
+  </si>
+  <si>
+    <t>One pointer to leftmost one in 0th row
+then move left traversing other rows</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1971,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -1987,7 +1991,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -1999,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
@@ -2016,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1">
@@ -2030,10 +2034,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1">
@@ -2044,10 +2048,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1">
@@ -2058,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1">
@@ -2072,10 +2076,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1">
@@ -2086,10 +2090,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1">
@@ -2100,10 +2104,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="31.5" customHeight="1">
@@ -2114,10 +2118,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52.5" customHeight="1">
@@ -2128,10 +2132,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="54" customHeight="1">
@@ -2142,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1">
@@ -2156,10 +2160,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1">
@@ -2170,10 +2174,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1">
@@ -2184,10 +2188,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1">
@@ -2198,10 +2202,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1">
@@ -2212,10 +2216,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1">
@@ -2226,10 +2230,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31.5" customHeight="1">
@@ -2240,10 +2244,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="53.25" customHeight="1">
@@ -2254,10 +2258,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1">
@@ -2268,10 +2272,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1">
@@ -2294,10 +2298,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1">
@@ -2308,10 +2312,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1">
@@ -2322,10 +2326,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1">
@@ -2336,10 +2340,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1">
@@ -2350,10 +2354,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1">
@@ -2364,10 +2368,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1">
@@ -2378,10 +2382,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.5" customHeight="1">
@@ -2392,10 +2396,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" customHeight="1">
@@ -2406,10 +2410,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52.5" customHeight="1">
@@ -2420,10 +2424,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="31.5" customHeight="1">
@@ -2434,10 +2438,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" customHeight="1">
@@ -2448,10 +2452,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="31.5" customHeight="1">
@@ -2462,10 +2466,10 @@
         <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="31.5" customHeight="1">
@@ -2473,13 +2477,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="D39" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="31.5" customHeight="1">
@@ -2490,10 +2494,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" customHeight="1">
@@ -2531,10 +2535,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="31.5" customHeight="1">
@@ -2545,10 +2549,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="31.5" customHeight="1">
@@ -2559,22 +2563,24 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="31.5" customHeight="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="46.5" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>497</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="31.5" customHeight="1">
@@ -2582,7 +2588,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
@@ -2594,7 +2600,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
@@ -2606,7 +2612,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
@@ -2618,13 +2624,13 @@
         <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" customHeight="1">
@@ -2632,7 +2638,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="8" t="s">
@@ -2644,7 +2650,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="8" t="s">
@@ -2659,10 +2665,10 @@
     </row>
     <row r="56" spans="1:4" ht="31.5" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="8" t="s">
@@ -2671,10 +2677,10 @@
     </row>
     <row r="57" spans="1:4" ht="31.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="8" t="s">
@@ -2683,10 +2689,10 @@
     </row>
     <row r="58" spans="1:4" ht="31.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="8" t="s">
@@ -2695,10 +2701,10 @@
     </row>
     <row r="59" spans="1:4" ht="31.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="8" t="s">
@@ -2707,10 +2713,10 @@
     </row>
     <row r="60" spans="1:4" ht="31.5" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
@@ -2719,10 +2725,10 @@
     </row>
     <row r="61" spans="1:4" ht="31.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="8" t="s">
@@ -2731,10 +2737,10 @@
     </row>
     <row r="62" spans="1:4" ht="31.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="8" t="s">
@@ -2743,24 +2749,24 @@
     </row>
     <row r="63" spans="1:4" ht="31.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="31.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="8" t="s">
@@ -2769,10 +2775,10 @@
     </row>
     <row r="65" spans="1:4" ht="31.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="8" t="s">
@@ -2781,10 +2787,10 @@
     </row>
     <row r="66" spans="1:4" ht="31.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="8" t="s">
@@ -2793,10 +2799,10 @@
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="8" t="s">
@@ -2805,10 +2811,10 @@
     </row>
     <row r="68" spans="1:4" ht="31.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="8" t="s">
@@ -2817,10 +2823,10 @@
     </row>
     <row r="69" spans="1:4" ht="31.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="8" t="s">
@@ -2829,10 +2835,10 @@
     </row>
     <row r="70" spans="1:4" ht="31.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="8" t="s">
@@ -2841,10 +2847,10 @@
     </row>
     <row r="71" spans="1:4" ht="31.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="8" t="s">
@@ -2853,10 +2859,10 @@
     </row>
     <row r="72" spans="1:4" ht="31.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="8" t="s">
@@ -2865,10 +2871,10 @@
     </row>
     <row r="73" spans="1:4" ht="31.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="8" t="s">
@@ -2877,10 +2883,10 @@
     </row>
     <row r="74" spans="1:4" ht="31.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="8" t="s">
@@ -2889,10 +2895,10 @@
     </row>
     <row r="75" spans="1:4" ht="31.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="8" t="s">
@@ -2901,10 +2907,10 @@
     </row>
     <row r="76" spans="1:4" ht="31.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="8" t="s">
@@ -2913,10 +2919,10 @@
     </row>
     <row r="77" spans="1:4" ht="31.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="8" t="s">
@@ -2925,10 +2931,10 @@
     </row>
     <row r="78" spans="1:4" ht="31.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="8" t="s">
@@ -2937,10 +2943,10 @@
     </row>
     <row r="79" spans="1:4" ht="31.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="8" t="s">
@@ -2949,10 +2955,10 @@
     </row>
     <row r="80" spans="1:4" ht="31.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="8" t="s">
@@ -2961,10 +2967,10 @@
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="8" t="s">
@@ -2973,10 +2979,10 @@
     </row>
     <row r="82" spans="1:4" ht="31.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="8" t="s">
@@ -2985,10 +2991,10 @@
     </row>
     <row r="83" spans="1:4" ht="31.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="8" t="s">
@@ -2997,10 +3003,10 @@
     </row>
     <row r="84" spans="1:4" ht="31.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="8" t="s">
@@ -3009,10 +3015,10 @@
     </row>
     <row r="85" spans="1:4" ht="31.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="8" t="s">
@@ -3021,10 +3027,10 @@
     </row>
     <row r="86" spans="1:4" ht="31.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="8" t="s">
@@ -3033,10 +3039,10 @@
     </row>
     <row r="87" spans="1:4" ht="31.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="8" t="s">
@@ -3045,10 +3051,10 @@
     </row>
     <row r="88" spans="1:4" ht="31.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="8" t="s">
@@ -3057,10 +3063,10 @@
     </row>
     <row r="89" spans="1:4" ht="31.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="8" t="s">
@@ -3069,10 +3075,10 @@
     </row>
     <row r="90" spans="1:4" ht="31.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="8" t="s">
@@ -3081,10 +3087,10 @@
     </row>
     <row r="91" spans="1:4" ht="31.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="8" t="s">
@@ -3093,10 +3099,10 @@
     </row>
     <row r="92" spans="1:4" ht="31.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="8" t="s">
@@ -3105,10 +3111,10 @@
     </row>
     <row r="93" spans="1:4" ht="31.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="8" t="s">
@@ -3117,10 +3123,10 @@
     </row>
     <row r="94" spans="1:4" ht="31.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="8" t="s">
@@ -3129,10 +3135,10 @@
     </row>
     <row r="95" spans="1:4" ht="31.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="8" t="s">
@@ -3141,10 +3147,10 @@
     </row>
     <row r="96" spans="1:4" ht="31.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="8" t="s">
@@ -3153,10 +3159,10 @@
     </row>
     <row r="97" spans="1:4" ht="31.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="8" t="s">
@@ -3165,10 +3171,10 @@
     </row>
     <row r="98" spans="1:4" ht="31.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="8" t="s">
@@ -3183,10 +3189,10 @@
     </row>
     <row r="101" spans="1:4" ht="31.5" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="8" t="s">
@@ -3195,10 +3201,10 @@
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="8" t="s">
@@ -3207,10 +3213,10 @@
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="8" t="s">
@@ -3219,10 +3225,10 @@
     </row>
     <row r="104" spans="1:4" ht="31.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="8" t="s">
@@ -3231,10 +3237,10 @@
     </row>
     <row r="105" spans="1:4" ht="31.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="8" t="s">
@@ -3243,10 +3249,10 @@
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="8" t="s">
@@ -3255,10 +3261,10 @@
     </row>
     <row r="107" spans="1:4" ht="31.5" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="8" t="s">
@@ -3267,10 +3273,10 @@
     </row>
     <row r="108" spans="1:4" ht="31.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="8" t="s">
@@ -3279,10 +3285,10 @@
     </row>
     <row r="109" spans="1:4" ht="31.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="8" t="s">
@@ -3291,10 +3297,10 @@
     </row>
     <row r="110" spans="1:4" ht="31.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="8" t="s">
@@ -3303,10 +3309,10 @@
     </row>
     <row r="111" spans="1:4" ht="31.5" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="8" t="s">
@@ -3315,10 +3321,10 @@
     </row>
     <row r="112" spans="1:4" ht="31.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="8" t="s">
@@ -3327,10 +3333,10 @@
     </row>
     <row r="113" spans="1:4" ht="31.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="8" t="s">
@@ -3339,10 +3345,10 @@
     </row>
     <row r="114" spans="1:4" ht="31.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="8" t="s">
@@ -3351,10 +3357,10 @@
     </row>
     <row r="115" spans="1:4" ht="31.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="8" t="s">
@@ -3363,10 +3369,10 @@
     </row>
     <row r="116" spans="1:4" ht="31.5" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="8" t="s">
@@ -3375,10 +3381,10 @@
     </row>
     <row r="117" spans="1:4" ht="31.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="8" t="s">
@@ -3387,10 +3393,10 @@
     </row>
     <row r="118" spans="1:4" ht="31.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="8" t="s">
@@ -3399,10 +3405,10 @@
     </row>
     <row r="119" spans="1:4" ht="31.5" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="8" t="s">
@@ -3411,10 +3417,10 @@
     </row>
     <row r="120" spans="1:4" ht="31.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="8" t="s">
@@ -3423,10 +3429,10 @@
     </row>
     <row r="121" spans="1:4" ht="31.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="8" t="s">
@@ -3435,10 +3441,10 @@
     </row>
     <row r="122" spans="1:4" ht="31.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="8" t="s">
@@ -3447,10 +3453,10 @@
     </row>
     <row r="123" spans="1:4" ht="31.5" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="8" t="s">
@@ -3459,10 +3465,10 @@
     </row>
     <row r="124" spans="1:4" ht="31.5" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="8" t="s">
@@ -3471,10 +3477,10 @@
     </row>
     <row r="125" spans="1:4" ht="31.5" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="8" t="s">
@@ -3483,10 +3489,10 @@
     </row>
     <row r="126" spans="1:4" ht="31.5" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="8" t="s">
@@ -3495,10 +3501,10 @@
     </row>
     <row r="127" spans="1:4" ht="31.5" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="8" t="s">
@@ -3507,10 +3513,10 @@
     </row>
     <row r="128" spans="1:4" ht="31.5" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="8" t="s">
@@ -3519,10 +3525,10 @@
     </row>
     <row r="129" spans="1:4" ht="31.5" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="8" t="s">
@@ -3531,10 +3537,10 @@
     </row>
     <row r="130" spans="1:4" ht="31.5" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="8" t="s">
@@ -3543,10 +3549,10 @@
     </row>
     <row r="131" spans="1:4" ht="31.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="8" t="s">
@@ -3555,10 +3561,10 @@
     </row>
     <row r="132" spans="1:4" ht="31.5" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="8" t="s">
@@ -3567,10 +3573,10 @@
     </row>
     <row r="133" spans="1:4" ht="31.5" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="8" t="s">
@@ -3579,10 +3585,10 @@
     </row>
     <row r="134" spans="1:4" ht="31.5" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="8" t="s">
@@ -3591,10 +3597,10 @@
     </row>
     <row r="135" spans="1:4" ht="31.5" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="8" t="s">
@@ -3603,10 +3609,10 @@
     </row>
     <row r="136" spans="1:4" ht="31.5" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="8" t="s">
@@ -3620,10 +3626,10 @@
     </row>
     <row r="139" spans="1:4" ht="31.5" customHeight="1">
       <c r="A139" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="8" t="s">
@@ -3632,10 +3638,10 @@
     </row>
     <row r="140" spans="1:4" ht="31.5" customHeight="1">
       <c r="A140" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="8" t="s">
@@ -3644,10 +3650,10 @@
     </row>
     <row r="141" spans="1:4" ht="31.5" customHeight="1">
       <c r="A141" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="8" t="s">
@@ -3656,10 +3662,10 @@
     </row>
     <row r="142" spans="1:4" ht="31.5" customHeight="1">
       <c r="A142" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="8" t="s">
@@ -3668,10 +3674,10 @@
     </row>
     <row r="143" spans="1:4" ht="31.5" customHeight="1">
       <c r="A143" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="8" t="s">
@@ -3680,10 +3686,10 @@
     </row>
     <row r="144" spans="1:4" ht="31.5" customHeight="1">
       <c r="A144" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="8" t="s">
@@ -3692,10 +3698,10 @@
     </row>
     <row r="145" spans="1:4" ht="31.5" customHeight="1">
       <c r="A145" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="8" t="s">
@@ -3704,10 +3710,10 @@
     </row>
     <row r="146" spans="1:4" ht="31.5" customHeight="1">
       <c r="A146" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="8" t="s">
@@ -3716,10 +3722,10 @@
     </row>
     <row r="147" spans="1:4" ht="31.5" customHeight="1">
       <c r="A147" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="8" t="s">
@@ -3728,10 +3734,10 @@
     </row>
     <row r="148" spans="1:4" ht="31.5" customHeight="1">
       <c r="A148" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="8" t="s">
@@ -3740,10 +3746,10 @@
     </row>
     <row r="149" spans="1:4" ht="31.5" customHeight="1">
       <c r="A149" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="8" t="s">
@@ -3752,10 +3758,10 @@
     </row>
     <row r="150" spans="1:4" ht="31.5" customHeight="1">
       <c r="A150" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="8" t="s">
@@ -3764,10 +3770,10 @@
     </row>
     <row r="151" spans="1:4" ht="31.5" customHeight="1">
       <c r="A151" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="8" t="s">
@@ -3776,10 +3782,10 @@
     </row>
     <row r="152" spans="1:4" ht="31.5" customHeight="1">
       <c r="A152" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="8" t="s">
@@ -3788,10 +3794,10 @@
     </row>
     <row r="153" spans="1:4" ht="31.5" customHeight="1">
       <c r="A153" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="8" t="s">
@@ -3800,10 +3806,10 @@
     </row>
     <row r="154" spans="1:4" ht="31.5" customHeight="1">
       <c r="A154" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="8" t="s">
@@ -3812,10 +3818,10 @@
     </row>
     <row r="155" spans="1:4" ht="31.5" customHeight="1">
       <c r="A155" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="8" t="s">
@@ -3824,10 +3830,10 @@
     </row>
     <row r="156" spans="1:4" ht="31.5" customHeight="1">
       <c r="A156" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="8" t="s">
@@ -3836,10 +3842,10 @@
     </row>
     <row r="157" spans="1:4" ht="31.5" customHeight="1">
       <c r="A157" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="8" t="s">
@@ -3848,10 +3854,10 @@
     </row>
     <row r="158" spans="1:4" ht="31.5" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="8" t="s">
@@ -3860,10 +3866,10 @@
     </row>
     <row r="159" spans="1:4" ht="31.5" customHeight="1">
       <c r="A159" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="8" t="s">
@@ -3872,10 +3878,10 @@
     </row>
     <row r="160" spans="1:4" ht="31.5" customHeight="1">
       <c r="A160" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="8" t="s">
@@ -3884,10 +3890,10 @@
     </row>
     <row r="161" spans="1:4" ht="31.5" customHeight="1">
       <c r="A161" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="8" t="s">
@@ -3896,10 +3902,10 @@
     </row>
     <row r="162" spans="1:4" ht="31.5" customHeight="1">
       <c r="A162" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="8" t="s">
@@ -3908,10 +3914,10 @@
     </row>
     <row r="163" spans="1:4" ht="31.5" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="8" t="s">
@@ -3920,10 +3926,10 @@
     </row>
     <row r="164" spans="1:4" ht="31.5" customHeight="1">
       <c r="A164" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="8" t="s">
@@ -3932,10 +3938,10 @@
     </row>
     <row r="165" spans="1:4" ht="31.5" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="8" t="s">
@@ -3944,10 +3950,10 @@
     </row>
     <row r="166" spans="1:4" ht="31.5" customHeight="1">
       <c r="A166" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="8" t="s">
@@ -3956,10 +3962,10 @@
     </row>
     <row r="167" spans="1:4" ht="31.5" customHeight="1">
       <c r="A167" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="8" t="s">
@@ -3968,10 +3974,10 @@
     </row>
     <row r="168" spans="1:4" ht="31.5" customHeight="1">
       <c r="A168" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="8" t="s">
@@ -3980,10 +3986,10 @@
     </row>
     <row r="169" spans="1:4" ht="31.5" customHeight="1">
       <c r="A169" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="8" t="s">
@@ -3992,10 +3998,10 @@
     </row>
     <row r="170" spans="1:4" ht="31.5" customHeight="1">
       <c r="A170" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="8" t="s">
@@ -4004,10 +4010,10 @@
     </row>
     <row r="171" spans="1:4" ht="31.5" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="8" t="s">
@@ -4016,10 +4022,10 @@
     </row>
     <row r="172" spans="1:4" ht="31.5" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="8" t="s">
@@ -4028,10 +4034,10 @@
     </row>
     <row r="173" spans="1:4" ht="31.5" customHeight="1">
       <c r="A173" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="8" t="s">
@@ -4040,10 +4046,10 @@
     </row>
     <row r="174" spans="1:4" ht="31.5" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="8" t="s">
@@ -4057,10 +4063,10 @@
     </row>
     <row r="177" spans="1:4" ht="31.5" customHeight="1">
       <c r="A177" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="8" t="s">
@@ -4069,10 +4075,10 @@
     </row>
     <row r="178" spans="1:4" ht="31.5" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="8" t="s">
@@ -4081,10 +4087,10 @@
     </row>
     <row r="179" spans="1:4" ht="31.5" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="8" t="s">
@@ -4093,10 +4099,10 @@
     </row>
     <row r="180" spans="1:4" ht="31.5" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="8" t="s">
@@ -4105,10 +4111,10 @@
     </row>
     <row r="181" spans="1:4" ht="31.5" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="8" t="s">
@@ -4117,10 +4123,10 @@
     </row>
     <row r="182" spans="1:4" ht="31.5" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="8" t="s">
@@ -4129,10 +4135,10 @@
     </row>
     <row r="183" spans="1:4" ht="31.5" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="8" t="s">
@@ -4141,10 +4147,10 @@
     </row>
     <row r="184" spans="1:4" ht="31.5" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="8" t="s">
@@ -4153,10 +4159,10 @@
     </row>
     <row r="185" spans="1:4" ht="31.5" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="8" t="s">
@@ -4165,10 +4171,10 @@
     </row>
     <row r="186" spans="1:4" ht="31.5" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="8" t="s">
@@ -4177,10 +4183,10 @@
     </row>
     <row r="187" spans="1:4" ht="31.5" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="8" t="s">
@@ -4189,10 +4195,10 @@
     </row>
     <row r="188" spans="1:4" ht="31.5" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="8" t="s">
@@ -4201,10 +4207,10 @@
     </row>
     <row r="189" spans="1:4" ht="31.5" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="8" t="s">
@@ -4213,10 +4219,10 @@
     </row>
     <row r="190" spans="1:4" ht="31.5" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="8" t="s">
@@ -4225,10 +4231,10 @@
     </row>
     <row r="191" spans="1:4" ht="31.5" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="8" t="s">
@@ -4237,10 +4243,10 @@
     </row>
     <row r="192" spans="1:4" ht="31.5" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="8" t="s">
@@ -4249,10 +4255,10 @@
     </row>
     <row r="193" spans="1:4" ht="31.5" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="8" t="s">
@@ -4261,10 +4267,10 @@
     </row>
     <row r="194" spans="1:4" ht="31.5" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="8" t="s">
@@ -4273,10 +4279,10 @@
     </row>
     <row r="195" spans="1:4" ht="31.5" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="8" t="s">
@@ -4285,10 +4291,10 @@
     </row>
     <row r="196" spans="1:4" ht="31.5" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="8" t="s">
@@ -4297,10 +4303,10 @@
     </row>
     <row r="197" spans="1:4" ht="31.5" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="8" t="s">
@@ -4309,10 +4315,10 @@
     </row>
     <row r="198" spans="1:4" ht="31.5" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="8" t="s">
@@ -4321,10 +4327,10 @@
     </row>
     <row r="199" spans="1:4" ht="31.5" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="8" t="s">
@@ -4333,10 +4339,10 @@
     </row>
     <row r="200" spans="1:4" ht="31.5" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="8" t="s">
@@ -4345,10 +4351,10 @@
     </row>
     <row r="201" spans="1:4" ht="31.5" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="8" t="s">
@@ -4357,10 +4363,10 @@
     </row>
     <row r="202" spans="1:4" ht="31.5" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="8" t="s">
@@ -4369,10 +4375,10 @@
     </row>
     <row r="203" spans="1:4" ht="31.5" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="8" t="s">
@@ -4381,10 +4387,10 @@
     </row>
     <row r="204" spans="1:4" ht="31.5" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="8" t="s">
@@ -4393,10 +4399,10 @@
     </row>
     <row r="205" spans="1:4" ht="31.5" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="8" t="s">
@@ -4405,10 +4411,10 @@
     </row>
     <row r="206" spans="1:4" ht="31.5" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="8" t="s">
@@ -4417,10 +4423,10 @@
     </row>
     <row r="207" spans="1:4" ht="31.5" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="8" t="s">
@@ -4429,10 +4435,10 @@
     </row>
     <row r="208" spans="1:4" ht="31.5" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="8" t="s">
@@ -4441,10 +4447,10 @@
     </row>
     <row r="209" spans="1:4" ht="31.5" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="8" t="s">
@@ -4453,10 +4459,10 @@
     </row>
     <row r="210" spans="1:4" ht="31.5" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="8" t="s">
@@ -4465,10 +4471,10 @@
     </row>
     <row r="211" spans="1:4" ht="31.5" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="8" t="s">
@@ -4489,10 +4495,10 @@
     </row>
     <row r="214" spans="1:4" ht="31.5" customHeight="1">
       <c r="A214" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="8" t="s">
@@ -4501,10 +4507,10 @@
     </row>
     <row r="215" spans="1:4" ht="31.5" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="8" t="s">
@@ -4513,10 +4519,10 @@
     </row>
     <row r="216" spans="1:4" ht="31.5" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="8" t="s">
@@ -4525,10 +4531,10 @@
     </row>
     <row r="217" spans="1:4" ht="31.5" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="8" t="s">
@@ -4537,10 +4543,10 @@
     </row>
     <row r="218" spans="1:4" ht="31.5" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="8" t="s">
@@ -4549,10 +4555,10 @@
     </row>
     <row r="219" spans="1:4" ht="31.5" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="8" t="s">
@@ -4561,10 +4567,10 @@
     </row>
     <row r="220" spans="1:4" ht="31.5" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="8" t="s">
@@ -4573,10 +4579,10 @@
     </row>
     <row r="221" spans="1:4" ht="31.5" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="8" t="s">
@@ -4585,10 +4591,10 @@
     </row>
     <row r="222" spans="1:4" ht="31.5" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="8" t="s">
@@ -4597,10 +4603,10 @@
     </row>
     <row r="223" spans="1:4" ht="31.5" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="8" t="s">
@@ -4609,10 +4615,10 @@
     </row>
     <row r="224" spans="1:4" ht="31.5" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="8" t="s">
@@ -4621,10 +4627,10 @@
     </row>
     <row r="225" spans="1:4" ht="31.5" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="8" t="s">
@@ -4633,10 +4639,10 @@
     </row>
     <row r="226" spans="1:4" ht="31.5" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="8" t="s">
@@ -4645,10 +4651,10 @@
     </row>
     <row r="227" spans="1:4" ht="31.5" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="8" t="s">
@@ -4657,10 +4663,10 @@
     </row>
     <row r="228" spans="1:4" ht="31.5" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="8" t="s">
@@ -4669,10 +4675,10 @@
     </row>
     <row r="229" spans="1:4" ht="31.5" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="8" t="s">
@@ -4681,10 +4687,10 @@
     </row>
     <row r="230" spans="1:4" ht="31.5" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="8" t="s">
@@ -4693,10 +4699,10 @@
     </row>
     <row r="231" spans="1:4" ht="31.5" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="8" t="s">
@@ -4705,10 +4711,10 @@
     </row>
     <row r="232" spans="1:4" ht="31.5" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="8" t="s">
@@ -4717,10 +4723,10 @@
     </row>
     <row r="233" spans="1:4" ht="31.5" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="8" t="s">
@@ -4729,10 +4735,10 @@
     </row>
     <row r="234" spans="1:4" ht="31.5" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="8" t="s">
@@ -4741,10 +4747,10 @@
     </row>
     <row r="235" spans="1:4" ht="31.5" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="8" t="s">
@@ -4763,10 +4769,10 @@
     </row>
     <row r="238" spans="1:4" ht="31.5" customHeight="1">
       <c r="A238" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="8" t="s">
@@ -4775,10 +4781,10 @@
     </row>
     <row r="239" spans="1:4" ht="31.5" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="8" t="s">
@@ -4787,10 +4793,10 @@
     </row>
     <row r="240" spans="1:4" ht="31.5" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="8" t="s">
@@ -4799,10 +4805,10 @@
     </row>
     <row r="241" spans="1:4" ht="31.5" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="8" t="s">
@@ -4811,10 +4817,10 @@
     </row>
     <row r="242" spans="1:4" ht="31.5" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="8" t="s">
@@ -4823,10 +4829,10 @@
     </row>
     <row r="243" spans="1:4" ht="31.5" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="8" t="s">
@@ -4835,10 +4841,10 @@
     </row>
     <row r="244" spans="1:4" ht="31.5" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="8" t="s">
@@ -4847,10 +4853,10 @@
     </row>
     <row r="245" spans="1:4" ht="31.5" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="8" t="s">
@@ -4859,10 +4865,10 @@
     </row>
     <row r="246" spans="1:4" ht="31.5" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="8" t="s">
@@ -4871,10 +4877,10 @@
     </row>
     <row r="247" spans="1:4" ht="31.5" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="8" t="s">
@@ -4883,10 +4889,10 @@
     </row>
     <row r="248" spans="1:4" ht="31.5" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="8" t="s">
@@ -4895,10 +4901,10 @@
     </row>
     <row r="249" spans="1:4" ht="31.5" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="8" t="s">
@@ -4907,10 +4913,10 @@
     </row>
     <row r="250" spans="1:4" ht="31.5" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="8" t="s">
@@ -4919,10 +4925,10 @@
     </row>
     <row r="251" spans="1:4" ht="31.5" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="8" t="s">
@@ -4931,10 +4937,10 @@
     </row>
     <row r="252" spans="1:4" ht="31.5" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="8" t="s">
@@ -4943,10 +4949,10 @@
     </row>
     <row r="253" spans="1:4" ht="31.5" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="8" t="s">
@@ -4955,10 +4961,10 @@
     </row>
     <row r="254" spans="1:4" ht="31.5" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="8" t="s">
@@ -4967,10 +4973,10 @@
     </row>
     <row r="255" spans="1:4" ht="31.5" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="8" t="s">
@@ -4979,10 +4985,10 @@
     </row>
     <row r="256" spans="1:4" ht="31.5" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="8" t="s">
@@ -4991,10 +4997,10 @@
     </row>
     <row r="257" spans="1:4" ht="31.5" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="8" t="s">
@@ -5003,10 +5009,10 @@
     </row>
     <row r="258" spans="1:4" ht="31.5" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="8" t="s">
@@ -5015,10 +5021,10 @@
     </row>
     <row r="259" spans="1:4" ht="31.5" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="8" t="s">
@@ -5027,10 +5033,10 @@
     </row>
     <row r="260" spans="1:4" ht="31.5" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="8" t="s">
@@ -5039,10 +5045,10 @@
     </row>
     <row r="261" spans="1:4" ht="31.5" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="8" t="s">
@@ -5051,10 +5057,10 @@
     </row>
     <row r="262" spans="1:4" ht="31.5" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="8" t="s">
@@ -5063,10 +5069,10 @@
     </row>
     <row r="263" spans="1:4" ht="31.5" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="8" t="s">
@@ -5075,10 +5081,10 @@
     </row>
     <row r="264" spans="1:4" ht="31.5" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="8" t="s">
@@ -5087,10 +5093,10 @@
     </row>
     <row r="265" spans="1:4" ht="31.5" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="8" t="s">
@@ -5099,10 +5105,10 @@
     </row>
     <row r="266" spans="1:4" ht="31.5" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="8" t="s">
@@ -5111,10 +5117,10 @@
     </row>
     <row r="267" spans="1:4" ht="31.5" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="8" t="s">
@@ -5123,10 +5129,10 @@
     </row>
     <row r="268" spans="1:4" ht="31.5" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="8" t="s">
@@ -5135,10 +5141,10 @@
     </row>
     <row r="269" spans="1:4" ht="31.5" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="8" t="s">
@@ -5147,10 +5153,10 @@
     </row>
     <row r="270" spans="1:4" ht="31.5" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="8" t="s">
@@ -5159,10 +5165,10 @@
     </row>
     <row r="271" spans="1:4" ht="31.5" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="8" t="s">
@@ -5171,10 +5177,10 @@
     </row>
     <row r="272" spans="1:4" ht="31.5" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="8" t="s">
@@ -5193,10 +5199,10 @@
     </row>
     <row r="275" spans="1:4" ht="31.5" customHeight="1">
       <c r="A275" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="8" t="s">
@@ -5205,10 +5211,10 @@
     </row>
     <row r="276" spans="1:4" ht="31.5" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="8" t="s">
@@ -5217,10 +5223,10 @@
     </row>
     <row r="277" spans="1:4" ht="31.5" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="8" t="s">
@@ -5229,10 +5235,10 @@
     </row>
     <row r="278" spans="1:4" ht="31.5" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="8" t="s">
@@ -5241,10 +5247,10 @@
     </row>
     <row r="279" spans="1:4" ht="31.5" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="8" t="s">
@@ -5253,10 +5259,10 @@
     </row>
     <row r="280" spans="1:4" ht="31.5" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="8" t="s">
@@ -5265,10 +5271,10 @@
     </row>
     <row r="281" spans="1:4" ht="31.5" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="8" t="s">
@@ -5277,10 +5283,10 @@
     </row>
     <row r="282" spans="1:4" ht="31.5" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="8" t="s">
@@ -5289,10 +5295,10 @@
     </row>
     <row r="283" spans="1:4" ht="31.5" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="8" t="s">
@@ -5301,10 +5307,10 @@
     </row>
     <row r="284" spans="1:4" ht="31.5" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="8" t="s">
@@ -5313,10 +5319,10 @@
     </row>
     <row r="285" spans="1:4" ht="31.5" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="8" t="s">
@@ -5325,10 +5331,10 @@
     </row>
     <row r="286" spans="1:4" ht="31.5" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="8" t="s">
@@ -5337,10 +5343,10 @@
     </row>
     <row r="287" spans="1:4" ht="31.5" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="8" t="s">
@@ -5349,10 +5355,10 @@
     </row>
     <row r="288" spans="1:4" ht="31.5" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="8" t="s">
@@ -5361,10 +5367,10 @@
     </row>
     <row r="289" spans="1:4" ht="31.5" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="8" t="s">
@@ -5373,10 +5379,10 @@
     </row>
     <row r="290" spans="1:4" ht="31.5" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="8" t="s">
@@ -5385,10 +5391,10 @@
     </row>
     <row r="291" spans="1:4" ht="31.5" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="8" t="s">
@@ -5397,10 +5403,10 @@
     </row>
     <row r="292" spans="1:4" ht="31.5" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="8" t="s">
@@ -5409,10 +5415,10 @@
     </row>
     <row r="293" spans="1:4" ht="31.5" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="8" t="s">
@@ -5431,10 +5437,10 @@
     </row>
     <row r="296" spans="1:4" ht="31.5" customHeight="1">
       <c r="A296" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="8" t="s">
@@ -5443,10 +5449,10 @@
     </row>
     <row r="297" spans="1:4" ht="31.5" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="8" t="s">
@@ -5455,10 +5461,10 @@
     </row>
     <row r="298" spans="1:4" ht="31.5" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="8" t="s">
@@ -5467,10 +5473,10 @@
     </row>
     <row r="299" spans="1:4" ht="31.5" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="8" t="s">
@@ -5479,10 +5485,10 @@
     </row>
     <row r="300" spans="1:4" ht="31.5" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="8" t="s">
@@ -5491,10 +5497,10 @@
     </row>
     <row r="301" spans="1:4" ht="31.5" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="8" t="s">
@@ -5503,10 +5509,10 @@
     </row>
     <row r="302" spans="1:4" ht="31.5" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="8" t="s">
@@ -5515,10 +5521,10 @@
     </row>
     <row r="303" spans="1:4" ht="31.5" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="8" t="s">
@@ -5527,10 +5533,10 @@
     </row>
     <row r="304" spans="1:4" ht="31.5" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="8" t="s">
@@ -5539,10 +5545,10 @@
     </row>
     <row r="305" spans="1:4" ht="31.5" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="8" t="s">
@@ -5551,10 +5557,10 @@
     </row>
     <row r="306" spans="1:4" ht="31.5" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="8" t="s">
@@ -5563,10 +5569,10 @@
     </row>
     <row r="307" spans="1:4" ht="31.5" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="8" t="s">
@@ -5575,10 +5581,10 @@
     </row>
     <row r="308" spans="1:4" ht="31.5" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="8" t="s">
@@ -5587,10 +5593,10 @@
     </row>
     <row r="309" spans="1:4" ht="31.5" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C309" s="11"/>
       <c r="D309" s="8" t="s">
@@ -5599,10 +5605,10 @@
     </row>
     <row r="310" spans="1:4" ht="31.5" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="8" t="s">
@@ -5611,10 +5617,10 @@
     </row>
     <row r="311" spans="1:4" ht="31.5" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="8" t="s">
@@ -5623,10 +5629,10 @@
     </row>
     <row r="312" spans="1:4" ht="31.5" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="8" t="s">
@@ -5635,10 +5641,10 @@
     </row>
     <row r="313" spans="1:4" ht="31.5" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="8" t="s">
@@ -5647,10 +5653,10 @@
     </row>
     <row r="314" spans="1:4" ht="31.5" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="8" t="s">
@@ -5659,10 +5665,10 @@
     </row>
     <row r="315" spans="1:4" ht="31.5" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="8" t="s">
@@ -5671,10 +5677,10 @@
     </row>
     <row r="316" spans="1:4" ht="31.5" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="8" t="s">
@@ -5683,10 +5689,10 @@
     </row>
     <row r="317" spans="1:4" ht="31.5" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="8" t="s">
@@ -5695,10 +5701,10 @@
     </row>
     <row r="318" spans="1:4" ht="31.5" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="8" t="s">
@@ -5707,10 +5713,10 @@
     </row>
     <row r="319" spans="1:4" ht="31.5" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="8" t="s">
@@ -5719,10 +5725,10 @@
     </row>
     <row r="320" spans="1:4" ht="31.5" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="8" t="s">
@@ -5731,10 +5737,10 @@
     </row>
     <row r="321" spans="1:4" ht="31.5" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="8" t="s">
@@ -5743,10 +5749,10 @@
     </row>
     <row r="322" spans="1:4" ht="31.5" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="8" t="s">
@@ -5755,10 +5761,10 @@
     </row>
     <row r="323" spans="1:4" ht="31.5" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="8" t="s">
@@ -5767,10 +5773,10 @@
     </row>
     <row r="324" spans="1:4" ht="31.5" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="8" t="s">
@@ -5779,10 +5785,10 @@
     </row>
     <row r="325" spans="1:4" ht="31.5" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="8" t="s">
@@ -5791,10 +5797,10 @@
     </row>
     <row r="326" spans="1:4" ht="31.5" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="8" t="s">
@@ -5803,10 +5809,10 @@
     </row>
     <row r="327" spans="1:4" ht="31.5" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="8" t="s">
@@ -5815,10 +5821,10 @@
     </row>
     <row r="328" spans="1:4" ht="31.5" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="8" t="s">
@@ -5827,10 +5833,10 @@
     </row>
     <row r="329" spans="1:4" ht="31.5" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="8" t="s">
@@ -5839,10 +5845,10 @@
     </row>
     <row r="330" spans="1:4" ht="31.5" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="8" t="s">
@@ -5851,10 +5857,10 @@
     </row>
     <row r="331" spans="1:4" ht="31.5" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="8" t="s">
@@ -5863,10 +5869,10 @@
     </row>
     <row r="332" spans="1:4" ht="31.5" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="8" t="s">
@@ -5875,10 +5881,10 @@
     </row>
     <row r="333" spans="1:4" ht="31.5" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="8" t="s">
@@ -5897,10 +5903,10 @@
     </row>
     <row r="336" spans="1:4" ht="31.5" customHeight="1">
       <c r="A336" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="8" t="s">
@@ -5909,10 +5915,10 @@
     </row>
     <row r="337" spans="1:4" ht="31.5" customHeight="1">
       <c r="A337" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="8" t="s">
@@ -5921,10 +5927,10 @@
     </row>
     <row r="338" spans="1:4" ht="31.5" customHeight="1">
       <c r="A338" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="8" t="s">
@@ -5933,10 +5939,10 @@
     </row>
     <row r="339" spans="1:4" ht="31.5" customHeight="1">
       <c r="A339" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="8" t="s">
@@ -5945,10 +5951,10 @@
     </row>
     <row r="340" spans="1:4" ht="31.5" customHeight="1">
       <c r="A340" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="8" t="s">
@@ -5957,10 +5963,10 @@
     </row>
     <row r="341" spans="1:4" ht="31.5" customHeight="1">
       <c r="A341" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="8" t="s">
@@ -5969,10 +5975,10 @@
     </row>
     <row r="342" spans="1:4" ht="31.5" customHeight="1">
       <c r="A342" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="8" t="s">
@@ -5981,10 +5987,10 @@
     </row>
     <row r="343" spans="1:4" ht="31.5" customHeight="1">
       <c r="A343" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="8" t="s">
@@ -5993,10 +5999,10 @@
     </row>
     <row r="344" spans="1:4" ht="31.5" customHeight="1">
       <c r="A344" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C344" s="11"/>
       <c r="D344" s="8" t="s">
@@ -6005,10 +6011,10 @@
     </row>
     <row r="345" spans="1:4" ht="31.5" customHeight="1">
       <c r="A345" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="8" t="s">
@@ -6017,10 +6023,10 @@
     </row>
     <row r="346" spans="1:4" ht="31.5" customHeight="1">
       <c r="A346" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="8" t="s">
@@ -6029,10 +6035,10 @@
     </row>
     <row r="347" spans="1:4" ht="31.5" customHeight="1">
       <c r="A347" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="8" t="s">
@@ -6041,10 +6047,10 @@
     </row>
     <row r="348" spans="1:4" ht="31.5" customHeight="1">
       <c r="A348" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="8" t="s">
@@ -6053,10 +6059,10 @@
     </row>
     <row r="349" spans="1:4" ht="31.5" customHeight="1">
       <c r="A349" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="8" t="s">
@@ -6065,10 +6071,10 @@
     </row>
     <row r="350" spans="1:4" ht="31.5" customHeight="1">
       <c r="A350" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="8" t="s">
@@ -6077,10 +6083,10 @@
     </row>
     <row r="351" spans="1:4" ht="31.5" customHeight="1">
       <c r="A351" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="8" t="s">
@@ -6089,10 +6095,10 @@
     </row>
     <row r="352" spans="1:4" ht="31.5" customHeight="1">
       <c r="A352" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="8" t="s">
@@ -6101,10 +6107,10 @@
     </row>
     <row r="353" spans="1:4" ht="31.5" customHeight="1">
       <c r="A353" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="8" t="s">
@@ -6123,10 +6129,10 @@
     </row>
     <row r="356" spans="1:4" ht="31.5" customHeight="1">
       <c r="A356" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="8" t="s">
@@ -6135,10 +6141,10 @@
     </row>
     <row r="357" spans="1:4" ht="31.5" customHeight="1">
       <c r="A357" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="8" t="s">
@@ -6147,10 +6153,10 @@
     </row>
     <row r="358" spans="1:4" ht="31.5" customHeight="1">
       <c r="A358" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="8" t="s">
@@ -6159,10 +6165,10 @@
     </row>
     <row r="359" spans="1:4" ht="31.5" customHeight="1">
       <c r="A359" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="8" t="s">
@@ -6171,10 +6177,10 @@
     </row>
     <row r="360" spans="1:4" ht="31.5" customHeight="1">
       <c r="A360" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="8" t="s">
@@ -6183,10 +6189,10 @@
     </row>
     <row r="361" spans="1:4" ht="31.5" customHeight="1">
       <c r="A361" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="8" t="s">
@@ -6195,10 +6201,10 @@
     </row>
     <row r="362" spans="1:4" ht="31.5" customHeight="1">
       <c r="A362" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="8" t="s">
@@ -6207,10 +6213,10 @@
     </row>
     <row r="363" spans="1:4" ht="31.5" customHeight="1">
       <c r="A363" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="8" t="s">
@@ -6219,10 +6225,10 @@
     </row>
     <row r="364" spans="1:4" ht="31.5" customHeight="1">
       <c r="A364" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="8" t="s">
@@ -6231,10 +6237,10 @@
     </row>
     <row r="365" spans="1:4" ht="31.5" customHeight="1">
       <c r="A365" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="8" t="s">
@@ -6243,10 +6249,10 @@
     </row>
     <row r="366" spans="1:4" ht="31.5" customHeight="1">
       <c r="A366" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="8" t="s">
@@ -6255,10 +6261,10 @@
     </row>
     <row r="367" spans="1:4" ht="31.5" customHeight="1">
       <c r="A367" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="8" t="s">
@@ -6267,10 +6273,10 @@
     </row>
     <row r="368" spans="1:4" ht="31.5" customHeight="1">
       <c r="A368" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="8" t="s">
@@ -6279,10 +6285,10 @@
     </row>
     <row r="369" spans="1:4" ht="31.5" customHeight="1">
       <c r="A369" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="8" t="s">
@@ -6291,10 +6297,10 @@
     </row>
     <row r="370" spans="1:4" ht="31.5" customHeight="1">
       <c r="A370" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="8" t="s">
@@ -6303,10 +6309,10 @@
     </row>
     <row r="371" spans="1:4" ht="31.5" customHeight="1">
       <c r="A371" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="8" t="s">
@@ -6315,10 +6321,10 @@
     </row>
     <row r="372" spans="1:4" ht="31.5" customHeight="1">
       <c r="A372" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="8" t="s">
@@ -6327,10 +6333,10 @@
     </row>
     <row r="373" spans="1:4" ht="31.5" customHeight="1">
       <c r="A373" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="8" t="s">
@@ -6339,10 +6345,10 @@
     </row>
     <row r="374" spans="1:4" ht="31.5" customHeight="1">
       <c r="A374" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="8" t="s">
@@ -6351,10 +6357,10 @@
     </row>
     <row r="375" spans="1:4" ht="31.5" customHeight="1">
       <c r="A375" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="8" t="s">
@@ -6363,10 +6369,10 @@
     </row>
     <row r="376" spans="1:4" ht="31.5" customHeight="1">
       <c r="A376" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="8" t="s">
@@ -6375,10 +6381,10 @@
     </row>
     <row r="377" spans="1:4" ht="31.5" customHeight="1">
       <c r="A377" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="8" t="s">
@@ -6387,10 +6393,10 @@
     </row>
     <row r="378" spans="1:4" ht="31.5" customHeight="1">
       <c r="A378" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="8" t="s">
@@ -6399,10 +6405,10 @@
     </row>
     <row r="379" spans="1:4" ht="31.5" customHeight="1">
       <c r="A379" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="8" t="s">
@@ -6411,10 +6417,10 @@
     </row>
     <row r="380" spans="1:4" ht="31.5" customHeight="1">
       <c r="A380" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="8" t="s">
@@ -6423,10 +6429,10 @@
     </row>
     <row r="381" spans="1:4" ht="31.5" customHeight="1">
       <c r="A381" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="8" t="s">
@@ -6435,10 +6441,10 @@
     </row>
     <row r="382" spans="1:4" ht="31.5" customHeight="1">
       <c r="A382" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="8" t="s">
@@ -6447,10 +6453,10 @@
     </row>
     <row r="383" spans="1:4" ht="31.5" customHeight="1">
       <c r="A383" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="8" t="s">
@@ -6459,10 +6465,10 @@
     </row>
     <row r="384" spans="1:4" ht="31.5" customHeight="1">
       <c r="A384" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="8" t="s">
@@ -6471,10 +6477,10 @@
     </row>
     <row r="385" spans="1:4" ht="31.5" customHeight="1">
       <c r="A385" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="8" t="s">
@@ -6483,10 +6489,10 @@
     </row>
     <row r="386" spans="1:4" ht="31.5" customHeight="1">
       <c r="A386" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="8" t="s">
@@ -6495,10 +6501,10 @@
     </row>
     <row r="387" spans="1:4" ht="31.5" customHeight="1">
       <c r="A387" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="8" t="s">
@@ -6507,10 +6513,10 @@
     </row>
     <row r="388" spans="1:4" ht="31.5" customHeight="1">
       <c r="A388" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="8" t="s">
@@ -6519,10 +6525,10 @@
     </row>
     <row r="389" spans="1:4" ht="31.5" customHeight="1">
       <c r="A389" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="8" t="s">
@@ -6531,10 +6537,10 @@
     </row>
     <row r="390" spans="1:4" ht="31.5" customHeight="1">
       <c r="A390" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="8" t="s">
@@ -6543,10 +6549,10 @@
     </row>
     <row r="391" spans="1:4" ht="31.5" customHeight="1">
       <c r="A391" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="8" t="s">
@@ -6555,10 +6561,10 @@
     </row>
     <row r="392" spans="1:4" ht="31.5" customHeight="1">
       <c r="A392" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="8" t="s">
@@ -6567,10 +6573,10 @@
     </row>
     <row r="393" spans="1:4" ht="31.5" customHeight="1">
       <c r="A393" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="8" t="s">
@@ -6579,10 +6585,10 @@
     </row>
     <row r="394" spans="1:4" ht="31.5" customHeight="1">
       <c r="A394" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="8" t="s">
@@ -6591,10 +6597,10 @@
     </row>
     <row r="395" spans="1:4" ht="31.5" customHeight="1">
       <c r="A395" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="8" t="s">
@@ -6603,10 +6609,10 @@
     </row>
     <row r="396" spans="1:4" ht="31.5" customHeight="1">
       <c r="A396" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="8" t="s">
@@ -6615,10 +6621,10 @@
     </row>
     <row r="397" spans="1:4" ht="31.5" customHeight="1">
       <c r="A397" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="8" t="s">
@@ -6627,10 +6633,10 @@
     </row>
     <row r="398" spans="1:4" ht="31.5" customHeight="1">
       <c r="A398" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="8" t="s">
@@ -6639,10 +6645,10 @@
     </row>
     <row r="399" spans="1:4" ht="31.5" customHeight="1">
       <c r="A399" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="8" t="s">
@@ -6661,10 +6667,10 @@
     </row>
     <row r="402" spans="1:4" ht="31.5" customHeight="1">
       <c r="A402" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="8" t="s">
@@ -6673,10 +6679,10 @@
     </row>
     <row r="403" spans="1:4" ht="31.5" customHeight="1">
       <c r="A403" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="8" t="s">
@@ -6685,10 +6691,10 @@
     </row>
     <row r="404" spans="1:4" ht="31.5" customHeight="1">
       <c r="A404" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="8" t="s">
@@ -6697,10 +6703,10 @@
     </row>
     <row r="405" spans="1:4" ht="31.5" customHeight="1">
       <c r="A405" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="8" t="s">
@@ -6709,10 +6715,10 @@
     </row>
     <row r="406" spans="1:4" ht="31.5" customHeight="1">
       <c r="A406" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="8" t="s">
@@ -6721,10 +6727,10 @@
     </row>
     <row r="407" spans="1:4" ht="31.5" customHeight="1">
       <c r="A407" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="8" t="s">
@@ -6743,10 +6749,10 @@
     </row>
     <row r="410" spans="1:4" ht="31.5" customHeight="1">
       <c r="A410" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="8" t="s">
@@ -6755,10 +6761,10 @@
     </row>
     <row r="411" spans="1:4" ht="31.5" customHeight="1">
       <c r="A411" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="8" t="s">
@@ -6767,10 +6773,10 @@
     </row>
     <row r="412" spans="1:4" ht="31.5" customHeight="1">
       <c r="A412" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="8" t="s">
@@ -6779,10 +6785,10 @@
     </row>
     <row r="413" spans="1:4" ht="31.5" customHeight="1">
       <c r="A413" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="8" t="s">
@@ -6791,10 +6797,10 @@
     </row>
     <row r="414" spans="1:4" ht="31.5" customHeight="1">
       <c r="A414" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="8" t="s">
@@ -6803,10 +6809,10 @@
     </row>
     <row r="415" spans="1:4" ht="31.5" customHeight="1">
       <c r="A415" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="8" t="s">
@@ -6815,10 +6821,10 @@
     </row>
     <row r="416" spans="1:4" ht="31.5" customHeight="1">
       <c r="A416" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="8" t="s">
@@ -6827,10 +6833,10 @@
     </row>
     <row r="417" spans="1:4" ht="31.5" customHeight="1">
       <c r="A417" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="8" t="s">
@@ -6839,10 +6845,10 @@
     </row>
     <row r="418" spans="1:4" ht="31.5" customHeight="1">
       <c r="A418" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="8" t="s">
@@ -6851,10 +6857,10 @@
     </row>
     <row r="419" spans="1:4" ht="31.5" customHeight="1">
       <c r="A419" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="8" t="s">
@@ -6863,10 +6869,10 @@
     </row>
     <row r="420" spans="1:4" ht="31.5" customHeight="1">
       <c r="A420" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="8" t="s">
@@ -6875,10 +6881,10 @@
     </row>
     <row r="421" spans="1:4" ht="31.5" customHeight="1">
       <c r="A421" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="8" t="s">
@@ -6887,10 +6893,10 @@
     </row>
     <row r="422" spans="1:4" ht="31.5" customHeight="1">
       <c r="A422" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="8" t="s">
@@ -6899,10 +6905,10 @@
     </row>
     <row r="423" spans="1:4" ht="31.5" customHeight="1">
       <c r="A423" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="8" t="s">
@@ -6911,10 +6917,10 @@
     </row>
     <row r="424" spans="1:4" ht="31.5" customHeight="1">
       <c r="A424" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="8" t="s">
@@ -6923,10 +6929,10 @@
     </row>
     <row r="425" spans="1:4" ht="31.5" customHeight="1">
       <c r="A425" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="8" t="s">
@@ -6935,10 +6941,10 @@
     </row>
     <row r="426" spans="1:4" ht="31.5" customHeight="1">
       <c r="A426" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="8" t="s">
@@ -6947,10 +6953,10 @@
     </row>
     <row r="427" spans="1:4" ht="31.5" customHeight="1">
       <c r="A427" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="8" t="s">
@@ -6959,10 +6965,10 @@
     </row>
     <row r="428" spans="1:4" ht="31.5" customHeight="1">
       <c r="A428" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="8" t="s">
@@ -6971,10 +6977,10 @@
     </row>
     <row r="429" spans="1:4" ht="31.5" customHeight="1">
       <c r="A429" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="8" t="s">
@@ -6983,10 +6989,10 @@
     </row>
     <row r="430" spans="1:4" ht="31.5" customHeight="1">
       <c r="A430" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="8" t="s">
@@ -6995,10 +7001,10 @@
     </row>
     <row r="431" spans="1:4" ht="31.5" customHeight="1">
       <c r="A431" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="8" t="s">
@@ -7007,10 +7013,10 @@
     </row>
     <row r="432" spans="1:4" ht="31.5" customHeight="1">
       <c r="A432" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="8" t="s">
@@ -7019,10 +7025,10 @@
     </row>
     <row r="433" spans="1:4" ht="31.5" customHeight="1">
       <c r="A433" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="8" t="s">
@@ -7031,10 +7037,10 @@
     </row>
     <row r="434" spans="1:4" ht="31.5" customHeight="1">
       <c r="A434" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="8" t="s">
@@ -7043,10 +7049,10 @@
     </row>
     <row r="435" spans="1:4" ht="31.5" customHeight="1">
       <c r="A435" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="8" t="s">
@@ -7055,10 +7061,10 @@
     </row>
     <row r="436" spans="1:4" ht="31.5" customHeight="1">
       <c r="A436" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="8" t="s">
@@ -7067,10 +7073,10 @@
     </row>
     <row r="437" spans="1:4" ht="31.5" customHeight="1">
       <c r="A437" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="8" t="s">
@@ -7079,10 +7085,10 @@
     </row>
     <row r="438" spans="1:4" ht="31.5" customHeight="1">
       <c r="A438" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="8" t="s">
@@ -7091,10 +7097,10 @@
     </row>
     <row r="439" spans="1:4" ht="31.5" customHeight="1">
       <c r="A439" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="8" t="s">
@@ -7103,10 +7109,10 @@
     </row>
     <row r="440" spans="1:4" ht="31.5" customHeight="1">
       <c r="A440" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="8" t="s">
@@ -7115,10 +7121,10 @@
     </row>
     <row r="441" spans="1:4" ht="31.5" customHeight="1">
       <c r="A441" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="8" t="s">
@@ -7127,10 +7133,10 @@
     </row>
     <row r="442" spans="1:4" ht="31.5" customHeight="1">
       <c r="A442" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="8" t="s">
@@ -7139,10 +7145,10 @@
     </row>
     <row r="443" spans="1:4" ht="31.5" customHeight="1">
       <c r="A443" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="8" t="s">
@@ -7151,10 +7157,10 @@
     </row>
     <row r="444" spans="1:4" ht="31.5" customHeight="1">
       <c r="A444" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="8" t="s">
@@ -7163,10 +7169,10 @@
     </row>
     <row r="445" spans="1:4" ht="31.5" customHeight="1">
       <c r="A445" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="8" t="s">
@@ -7175,10 +7181,10 @@
     </row>
     <row r="446" spans="1:4" ht="31.5" customHeight="1">
       <c r="A446" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="8" t="s">
@@ -7187,10 +7193,10 @@
     </row>
     <row r="447" spans="1:4" ht="31.5" customHeight="1">
       <c r="A447" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="8" t="s">
@@ -7199,10 +7205,10 @@
     </row>
     <row r="448" spans="1:4" ht="31.5" customHeight="1">
       <c r="A448" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="8" t="s">
@@ -7211,10 +7217,10 @@
     </row>
     <row r="449" spans="1:4" ht="31.5" customHeight="1">
       <c r="A449" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="8" t="s">
@@ -7223,10 +7229,10 @@
     </row>
     <row r="450" spans="1:4" ht="31.5" customHeight="1">
       <c r="A450" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="8" t="s">
@@ -7235,10 +7241,10 @@
     </row>
     <row r="451" spans="1:4" ht="31.5" customHeight="1">
       <c r="A451" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="8" t="s">
@@ -7247,10 +7253,10 @@
     </row>
     <row r="452" spans="1:4" ht="31.5" customHeight="1">
       <c r="A452" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="8" t="s">
@@ -7259,10 +7265,10 @@
     </row>
     <row r="453" spans="1:4" ht="31.5" customHeight="1">
       <c r="A453" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="8" t="s">
@@ -7271,10 +7277,10 @@
     </row>
     <row r="454" spans="1:4" ht="31.5" customHeight="1">
       <c r="A454" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="8" t="s">
@@ -7283,10 +7289,10 @@
     </row>
     <row r="455" spans="1:4" ht="31.5" customHeight="1">
       <c r="A455" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="8" t="s">
@@ -7295,10 +7301,10 @@
     </row>
     <row r="456" spans="1:4" ht="31.5" customHeight="1">
       <c r="A456" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="8" t="s">
@@ -7307,10 +7313,10 @@
     </row>
     <row r="457" spans="1:4" ht="31.5" customHeight="1">
       <c r="A457" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="8" t="s">
@@ -7319,10 +7325,10 @@
     </row>
     <row r="458" spans="1:4" ht="31.5" customHeight="1">
       <c r="A458" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="8" t="s">
@@ -7331,10 +7337,10 @@
     </row>
     <row r="459" spans="1:4" ht="31.5" customHeight="1">
       <c r="A459" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="8" t="s">
@@ -7343,10 +7349,10 @@
     </row>
     <row r="460" spans="1:4" ht="31.5" customHeight="1">
       <c r="A460" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="8" t="s">
@@ -7355,10 +7361,10 @@
     </row>
     <row r="461" spans="1:4" ht="31.5" customHeight="1">
       <c r="A461" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="8" t="s">
@@ -7367,10 +7373,10 @@
     </row>
     <row r="462" spans="1:4" ht="31.5" customHeight="1">
       <c r="A462" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="8" t="s">
@@ -7379,10 +7385,10 @@
     </row>
     <row r="463" spans="1:4" ht="31.5" customHeight="1">
       <c r="A463" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="8" t="s">
@@ -7391,10 +7397,10 @@
     </row>
     <row r="464" spans="1:4" ht="31.5" customHeight="1">
       <c r="A464" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="8" t="s">
@@ -7403,10 +7409,10 @@
     </row>
     <row r="465" spans="1:4" ht="31.5" customHeight="1">
       <c r="A465" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="8" t="s">
@@ -7415,10 +7421,10 @@
     </row>
     <row r="466" spans="1:4" ht="31.5" customHeight="1">
       <c r="A466" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="8" t="s">
@@ -7427,10 +7433,10 @@
     </row>
     <row r="467" spans="1:4" ht="31.5" customHeight="1">
       <c r="A467" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="8" t="s">
@@ -7439,10 +7445,10 @@
     </row>
     <row r="468" spans="1:4" ht="31.5" customHeight="1">
       <c r="A468" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="8" t="s">
@@ -7451,10 +7457,10 @@
     </row>
     <row r="469" spans="1:4" ht="31.5" customHeight="1">
       <c r="A469" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="8" t="s">
@@ -7474,10 +7480,10 @@
     </row>
     <row r="472" spans="1:4" ht="31.5" customHeight="1">
       <c r="A472" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="8" t="s">
@@ -7486,10 +7492,10 @@
     </row>
     <row r="473" spans="1:4" ht="31.5" customHeight="1">
       <c r="A473" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="8" t="s">
@@ -7498,10 +7504,10 @@
     </row>
     <row r="474" spans="1:4" ht="31.5" customHeight="1">
       <c r="A474" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="8" t="s">
@@ -7510,10 +7516,10 @@
     </row>
     <row r="475" spans="1:4" ht="31.5" customHeight="1">
       <c r="A475" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="8" t="s">
@@ -7522,10 +7528,10 @@
     </row>
     <row r="476" spans="1:4" ht="31.5" customHeight="1">
       <c r="A476" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="8" t="s">
@@ -7534,10 +7540,10 @@
     </row>
     <row r="477" spans="1:4" ht="31.5" customHeight="1">
       <c r="A477" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="8" t="s">
@@ -7546,10 +7552,10 @@
     </row>
     <row r="478" spans="1:4" ht="31.5" customHeight="1">
       <c r="A478" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="8" t="s">
@@ -7558,10 +7564,10 @@
     </row>
     <row r="479" spans="1:4" ht="31.5" customHeight="1">
       <c r="A479" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="8" t="s">
@@ -7570,10 +7576,10 @@
     </row>
     <row r="480" spans="1:4" ht="31.5" customHeight="1">
       <c r="A480" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="8" t="s">
@@ -7582,10 +7588,10 @@
     </row>
     <row r="481" spans="1:4" ht="31.5" customHeight="1">
       <c r="A481" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="8" t="s">
@@ -7633,7 +7639,7 @@
     <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
     <hyperlink ref="B45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
     <hyperlink ref="B46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B47" r:id="rId40" display="Find row with maximum no. of 1's" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
     <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
     <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
     <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805D5F11-4BEE-4007-A6AD-5EA91FD97163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B4A94-C83A-46F9-8CC5-6FAA757DE79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="499">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1525,6 +1525,9 @@
   <si>
     <t>One pointer to leftmost one in 0th row
 then move left traversing other rows</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1974,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2590,9 +2593,11 @@
       <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>498</v>
+      </c>
       <c r="D48" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B4A94-C83A-46F9-8CC5-6FAA757DE79B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3EABAA-6E89-4B3A-89D0-3C15A7D27D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="500">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1528,6 +1528,9 @@
   </si>
   <si>
     <t>Two pointer</t>
+  </si>
+  <si>
+    <t>StringBuilder reverse</t>
   </si>
 </sst>
 </file>
@@ -1973,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2675,9 +2678,11 @@
       <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3EABAA-6E89-4B3A-89D0-3C15A7D27D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA9219-C1DD-4BFC-853A-28A3D6980DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="501">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1531,6 +1531,9 @@
   </si>
   <si>
     <t>StringBuilder reverse</t>
+  </si>
+  <si>
+    <t>Calculate area at each row</t>
   </si>
 </sst>
 </file>
@@ -1976,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2610,9 +2613,11 @@
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA9219-C1DD-4BFC-853A-28A3D6980DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44AF43D-34C9-4FE0-93E0-9634920D33CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="502">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>Calculate area at each row</t>
+  </si>
+  <si>
+    <t>reverse and compare or half compare</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2697,9 +2700,11 @@
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="D57" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44AF43D-34C9-4FE0-93E0-9634920D33CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ECBEB6-E1DB-4422-904A-BC58859412B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1537,6 +1537,9 @@
   </si>
   <si>
     <t>reverse and compare or half compare</t>
+  </si>
+  <si>
+    <t>hashmap</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1986,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2714,9 +2717,11 @@
       <c r="B58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>502</v>
+      </c>
       <c r="D58" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ECBEB6-E1DB-4422-904A-BC58859412B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB6003E-E84F-4710-A592-694894E6ED5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="504">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1540,6 +1540,9 @@
   </si>
   <si>
     <t>hashmap</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2010/10/why-string-is-immutable-or-final-in-java.html#axzz6sU1MZ3Vg</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1989,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2731,9 +2734,11 @@
       <c r="B59" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="D59" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="31.5" customHeight="1">
@@ -8071,6 +8076,7 @@
     <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="C59" r:id="rId447" location="axzz6sU1MZ3Vg" xr:uid="{27DBDB86-DDDD-45F5-A1EE-B6B389A35C07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB6003E-E84F-4710-A592-694894E6ED5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41925FB7-C089-4F0D-8BF6-4155811B5368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="505">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1543,6 +1543,9 @@
   </si>
   <si>
     <t>https://javarevisited.blogspot.com/2010/10/why-string-is-immutable-or-final-in-java.html#axzz6sU1MZ3Vg</t>
+  </si>
+  <si>
+    <t>compare strings</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1992,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2748,9 +2751,11 @@
       <c r="B60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="D60" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41925FB7-C089-4F0D-8BF6-4155811B5368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A62A0A7-6A0B-4D33-AC6B-9E298C5A5DD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="506">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>compare strings</t>
+  </si>
+  <si>
+    <t>Two pointers</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1995,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2765,9 +2768,11 @@
       <c r="B61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>505</v>
+      </c>
       <c r="D61" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A62A0A7-6A0B-4D33-AC6B-9E298C5A5DD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857DEBE7-3C29-43EB-A57F-A8438F72D467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="507">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>Two pointers</t>
+  </si>
+  <si>
+    <t>StringbBuilder</t>
   </si>
 </sst>
 </file>
@@ -1994,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2782,9 +2785,11 @@
       <c r="B62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="D62" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857DEBE7-3C29-43EB-A57F-A8438F72D467}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D1EFE-A112-4364-80BE-1781BE328A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="507">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1998,7 +1998,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2813,9 +2813,11 @@
       <c r="B64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D64" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D1EFE-A112-4364-80BE-1781BE328A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D97F0E9-259C-410B-B3D0-45B95B17DEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="508">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1552,6 +1552,9 @@
   </si>
   <si>
     <t>StringbBuilder</t>
+  </si>
+  <si>
+    <t>pick and don’t pick</t>
   </si>
 </sst>
 </file>
@@ -1997,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2827,9 +2830,11 @@
       <c r="B65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="D65" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D97F0E9-259C-410B-B3D0-45B95B17DEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2206B1-69F8-4D2B-905D-05797194F298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="509">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1555,6 +1555,9 @@
   </si>
   <si>
     <t>pick and don’t pick</t>
+  </si>
+  <si>
+    <t>Recursion</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2004,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2844,9 +2847,11 @@
       <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D66" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2206B1-69F8-4D2B-905D-05797194F298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA270A-4B48-4B43-A409-81F4A0F6A50A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="510">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1558,6 +1558,9 @@
   </si>
   <si>
     <t>Recursion</t>
+  </si>
+  <si>
+    <t>count++ when equal</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2007,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2861,9 +2864,11 @@
       <c r="B67" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>509</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA270A-4B48-4B43-A409-81F4A0F6A50A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC26C69-9425-40CC-A4E0-E23B41B9D110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="510">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2007,7 +2007,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2878,9 +2878,11 @@
       <c r="B68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D68" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC26C69-9425-40CC-A4E0-E23B41B9D110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B246DA4D-D0C5-4328-81FA-7CB4F2615067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="510">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2007,7 +2007,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2892,9 +2892,11 @@
       <c r="B69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D69" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B246DA4D-D0C5-4328-81FA-7CB4F2615067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161477BA-8471-4029-9468-4271B06A41DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="512">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1561,6 +1561,12 @@
   </si>
   <si>
     <t>count++ when equal</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>stack</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2013,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2906,9 +2912,11 @@
       <c r="B70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="D70" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="31.5" customHeight="1">
@@ -2918,9 +2926,11 @@
       <c r="B71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="D71" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161477BA-8471-4029-9468-4271B06A41DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2FAEE9-A833-444C-B66C-63E53DE0AC6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="513">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1567,6 +1567,9 @@
   </si>
   <si>
     <t>stack</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2016,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2952,9 +2955,11 @@
       <c r="B73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="D73" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2FAEE9-A833-444C-B66C-63E53DE0AC6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8523FC7C-D7E0-49BD-819E-5F1C331442A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="513">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2943,9 +2943,11 @@
       <c r="B72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="D72" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8523FC7C-D7E0-49BD-819E-5F1C331442A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C41F7F-FFE6-43D2-B730-CFC149A05322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="513">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2971,9 +2971,11 @@
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="D74" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C41F7F-FFE6-43D2-B730-CFC149A05322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377BAEB-450F-4F9E-B7AF-FA8728512667}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="515">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1570,6 +1570,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2022,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -2985,9 +2991,11 @@
       <c r="B75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="D75" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="31.5" customHeight="1">
@@ -2997,9 +3005,11 @@
       <c r="B76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="D76" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1377BAEB-450F-4F9E-B7AF-FA8728512667}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89E46E-A07A-4C60-A046-5F45A5BA0AF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="515">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2021,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3019,9 +3019,11 @@
       <c r="B77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D77" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89E46E-A07A-4C60-A046-5F45A5BA0AF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C6A29C-E1B0-4E13-8470-D39346E3C831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="515">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2022,7 +2022,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3033,9 +3033,11 @@
       <c r="B78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D78" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C6A29C-E1B0-4E13-8470-D39346E3C831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17075920-7C7E-45C7-8D95-80AA2B71D2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="515">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2022,7 +2022,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3047,9 +3047,11 @@
       <c r="B79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17075920-7C7E-45C7-8D95-80AA2B71D2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5278A-45F0-4C72-A9D3-EF1275293668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="516">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1576,6 +1576,9 @@
   </si>
   <si>
     <t>Stack</t>
+  </si>
+  <si>
+    <t>Algo</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2025,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3061,9 +3064,11 @@
       <c r="B80" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="D80" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5278A-45F0-4C72-A9D3-EF1275293668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED040F5E-DEE3-4EF3-80D6-D2A41D5B45F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="516">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3078,9 +3078,11 @@
       <c r="B81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="D81" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED040F5E-DEE3-4EF3-80D6-D2A41D5B45F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B36AB-1859-4F04-9B81-F10AEC04679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="517">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1579,6 +1579,9 @@
   </si>
   <si>
     <t>Algo</t>
+  </si>
+  <si>
+    <t>Compare each character</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2028,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3092,9 +3095,11 @@
       <c r="B82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="D82" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69B36AB-1859-4F04-9B81-F10AEC04679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A35AE-53B0-492C-95FD-24DBAFB16A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="517">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3109,9 +3109,11 @@
       <c r="B83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A35AE-53B0-492C-95FD-24DBAFB16A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10AB14-00AB-4269-B994-5CC1DEA37DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="518">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>Compare each character</t>
+  </si>
+  <si>
+    <t>HashMap and PriorityQueue</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3123,9 +3126,11 @@
       <c r="B84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="D84" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD10AB14-00AB-4269-B994-5CC1DEA37DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0FD39-7ADD-4784-8F29-CBA389714B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="519">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1585,6 +1585,9 @@
   </si>
   <si>
     <t>HashMap and PriorityQueue</t>
+  </si>
+  <si>
+    <t>count unbalanced</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2034,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3140,9 +3143,11 @@
       <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0FD39-7ADD-4784-8F29-CBA389714B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97876C8E-8617-4D2F-ADBF-226CC38823CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="519">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3157,9 +3157,11 @@
       <c r="B86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D86" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97876C8E-8617-4D2F-ADBF-226CC38823CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545EF967-890B-4233-9308-D4743E62C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="519">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2034,7 +2034,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3171,9 +3171,11 @@
       <c r="B87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D87" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545EF967-890B-4233-9308-D4743E62C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E8935-E941-4508-B878-41E1DC87126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="520">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1588,6 +1588,9 @@
   </si>
   <si>
     <t>count unbalanced</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2037,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3185,9 +3188,11 @@
       <c r="B88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="D88" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E8935-E941-4508-B878-41E1DC87126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD34827-E7FF-4D64-9A8C-3284EC68D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="521">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1591,6 +1591,9 @@
   </si>
   <si>
     <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Priority Queue</t>
   </si>
 </sst>
 </file>
@@ -2036,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3202,9 +3205,11 @@
       <c r="B89" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="D89" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD34827-E7FF-4D64-9A8C-3284EC68D1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6EDA6-C0C7-40D2-820A-D8F7F3D1D794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="522">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>Priority Queue</t>
+  </si>
+  <si>
+    <t>KMP algo</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2043,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3219,9 +3222,11 @@
       <c r="B90" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D90" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6EDA6-C0C7-40D2-820A-D8F7F3D1D794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D3E15-5EEB-49B8-9A8F-996BC7266E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="523">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1597,6 +1597,9 @@
   </si>
   <si>
     <t>KMP algo</t>
+  </si>
+  <si>
+    <t>sort and compare</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2046,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3236,9 +3239,11 @@
       <c r="B91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="D91" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D3E15-5EEB-49B8-9A8F-996BC7266E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DBC5B-4826-43BA-A428-DEC8DE7DE2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="524">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>sort and compare</t>
+  </si>
+  <si>
+    <t>compare and count</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2049,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3253,9 +3256,11 @@
       <c r="B92" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DBC5B-4826-43BA-A428-DEC8DE7DE2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5BD3E-4E67-469A-B7F5-D4AF87E8E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="524">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2049,7 +2049,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3270,9 +3270,11 @@
       <c r="B93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>511</v>
+      </c>
       <c r="D93" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5BD3E-4E67-469A-B7F5-D4AF87E8E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A63B02-7C51-4EB6-ACF1-AB116A5A01BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="525">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t>compare and count</t>
+  </si>
+  <si>
+    <t>String matching</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2052,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3284,9 +3287,11 @@
       <c r="B94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>524</v>
+      </c>
       <c r="D94" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A63B02-7C51-4EB6-ACF1-AB116A5A01BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198B537-A497-408D-97F8-D0A0C5C27224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="526">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1606,6 +1606,9 @@
   </si>
   <si>
     <t>String matching</t>
+  </si>
+  <si>
+    <t>Counter</t>
   </si>
 </sst>
 </file>
@@ -2051,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3301,9 +3304,11 @@
       <c r="B95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="D95" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198B537-A497-408D-97F8-D0A0C5C27224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E10C52-BAF8-498C-9C0B-3D64A5EB230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="527">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1609,6 +1609,9 @@
   </si>
   <si>
     <t>Counter</t>
+  </si>
+  <si>
+    <t>counter and compare</t>
   </si>
 </sst>
 </file>
@@ -2054,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3318,9 +3321,11 @@
       <c r="B96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>526</v>
+      </c>
       <c r="D96" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E10C52-BAF8-498C-9C0B-3D64A5EB230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDD670E-3194-4F28-B416-CFB223910239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="528">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1612,6 +1612,9 @@
   </si>
   <si>
     <t>counter and compare</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2061,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3335,9 +3338,11 @@
       <c r="B97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="D97" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDD670E-3194-4F28-B416-CFB223910239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0594A13-4E22-4A5E-88A5-50E232333451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="528">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3352,9 +3352,11 @@
       <c r="B98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0594A13-4E22-4A5E-88A5-50E232333451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10CF8C0-0B4D-4609-93FD-D64017AE6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1615,6 +1615,9 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>Loop</t>
   </si>
 </sst>
 </file>
@@ -2060,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3372,9 +3375,11 @@
       <c r="B101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D101" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10CF8C0-0B4D-4609-93FD-D64017AE6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C9AD2-974E-464A-A429-022BC5D97551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1617,7 +1617,7 @@
     <t>map</t>
   </si>
   <si>
-    <t>Loop</t>
+    <t>Loop &amp; Search</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2064,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3389,9 +3389,11 @@
       <c r="B102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D102" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C9AD2-974E-464A-A429-022BC5D97551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5006F-9F0C-43B9-B826-3F10EBF34819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2064,7 +2064,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3403,9 +3403,11 @@
       <c r="B103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D103" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5006F-9F0C-43B9-B826-3F10EBF34819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C97FC-F481-4498-A99C-A5C6A94952B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="530">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1618,6 +1618,9 @@
   </si>
   <si>
     <t>Loop &amp; Search</t>
+  </si>
+  <si>
+    <t>Loop</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2067,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3417,9 +3420,11 @@
       <c r="B104" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="D104" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C97FC-F481-4498-A99C-A5C6A94952B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241F6A1-2A0F-4371-90CD-DDE51692ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="531">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1621,6 +1621,9 @@
   </si>
   <si>
     <t>Loop</t>
+  </si>
+  <si>
+    <t>Compare</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2070,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3434,9 +3437,11 @@
       <c r="B105" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="D105" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241F6A1-2A0F-4371-90CD-DDE51692ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A4FC45-3FA0-4938-BDFA-47C181D71C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="532">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1624,6 +1624,9 @@
   </si>
   <si>
     <t>Compare</t>
+  </si>
+  <si>
+    <t>Ternary Search</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2073,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3451,9 +3454,11 @@
       <c r="B106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="D106" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A4FC45-3FA0-4938-BDFA-47C181D71C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877DFCB8-3300-48C8-8B48-71352A3DF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="532">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3468,9 +3468,11 @@
       <c r="B107" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D107" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877DFCB8-3300-48C8-8B48-71352A3DF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B52FC0-1EAE-418C-B72A-AEFDF69F2211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="532">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3494,9 +3494,11 @@
       <c r="B109" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="D109" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B52FC0-1EAE-418C-B72A-AEFDF69F2211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD040E-42BE-421B-8E0A-5BD605DBB33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="533">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t>Ternary Search</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2076,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3508,9 +3511,11 @@
       <c r="B110" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="D110" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD040E-42BE-421B-8E0A-5BD605DBB33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543222A3-E39D-4174-99FE-0C1A164F686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="534">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1630,6 +1630,9 @@
   </si>
   <si>
     <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>loops</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2079,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3525,9 +3528,11 @@
       <c r="B111" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="D111" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543222A3-E39D-4174-99FE-0C1A164F686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A40C5DD-1EAC-42BE-BCAF-B62D50DD2BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="535">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1633,6 +1633,9 @@
   </si>
   <si>
     <t>loops</t>
+  </si>
+  <si>
+    <t>include exclude</t>
   </si>
 </sst>
 </file>
@@ -2078,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3542,9 +3545,11 @@
       <c r="B112" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="D112" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A40C5DD-1EAC-42BE-BCAF-B62D50DD2BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B31F0A2-3402-448A-83B4-C8F4CF3A1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="536">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1636,6 +1636,9 @@
   </si>
   <si>
     <t>include exclude</t>
+  </si>
+  <si>
+    <t>Three pointers</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2085,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3559,9 +3562,11 @@
       <c r="B113" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="D113" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B31F0A2-3402-448A-83B4-C8F4CF3A1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D81436-934C-4855-866A-8297A3DBF6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="537">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1639,6 +1639,9 @@
   </si>
   <si>
     <t>Three pointers</t>
+  </si>
+  <si>
+    <t>Merge</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2088,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3576,9 +3579,11 @@
       <c r="B114" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="D114" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="31.5" customHeight="1">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\JAVA\Final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D81436-934C-4855-866A-8297A3DBF6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6AA283-9BA0-4637-9FB6-3DAAF23DDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="537">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2088,7 +2088,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="31.5" customHeight="1"/>
@@ -3593,9 +3593,11 @@
       <c r="B115" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="D115" s="8" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="31.5" customHeight="1">
